--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Ostolaskut_suurimmat.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Ostolaskut_suurimmat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8FD94-0CC5-4356-9A2F-E0C5610806E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FCD61-556E-4560-82D7-50C8DD8C83B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10665" xr2:uid="{F120896B-792D-47AE-B658-9EDDF2D41443}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="63">
   <si>
     <t>Kuntanro</t>
   </si>
@@ -154,10 +154,37 @@
     <t>Varhaiskasvatus</t>
   </si>
   <si>
-    <t>1565583-5</t>
-  </si>
-  <si>
-    <t>YIT SUOMI OY</t>
+    <t>Maakunnallinen palvelutoiminta</t>
+  </si>
+  <si>
+    <t>Lpr seudun ympäristötoimi</t>
+  </si>
+  <si>
+    <t>Aineet, tarvikkeet ja tavarat</t>
+  </si>
+  <si>
+    <t>Kaupunkikehitys</t>
+  </si>
+  <si>
+    <t>Kadut ja ympäristö</t>
+  </si>
+  <si>
+    <t>Liikuntapalvelut</t>
+  </si>
+  <si>
+    <t>Ulkoliikuntapaikat</t>
+  </si>
+  <si>
+    <t>Liikuntahallit</t>
+  </si>
+  <si>
+    <t>Muut palvelut</t>
+  </si>
+  <si>
+    <t>Kulttuuripalvelut</t>
+  </si>
+  <si>
+    <t>Museo</t>
   </si>
   <si>
     <t>2752472-8</t>
@@ -166,40 +193,37 @@
     <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
   </si>
   <si>
-    <t>Maakunnallinen palvelutoiminta</t>
+    <t>Elintarvikkeet</t>
+  </si>
+  <si>
+    <t>Sosiaali- ja terveyspalvelut</t>
   </si>
   <si>
     <t>E-K Pelastuslaitos</t>
   </si>
   <si>
-    <t>Nuorisopalvelut</t>
-  </si>
-  <si>
-    <t>0206823-6</t>
-  </si>
-  <si>
-    <t>LPR MUSIIKKIOPISTO</t>
+    <t>0165069-7</t>
+  </si>
+  <si>
+    <t>SAVONLINJA OY</t>
+  </si>
+  <si>
+    <t>Matkustus- ja kuljetuspalvelut</t>
+  </si>
+  <si>
+    <t>Maaomaisuuden hallinta</t>
+  </si>
+  <si>
+    <t>0246246-0</t>
+  </si>
+  <si>
+    <t>KANSANELÄKELAITOS</t>
   </si>
   <si>
     <t>Avustukset</t>
   </si>
   <si>
-    <t>Avustukset yhteisöille</t>
-  </si>
-  <si>
-    <t>Koulutus- ja kulttuuripalvelut</t>
-  </si>
-  <si>
-    <t>Painatukset ja ilmoitukset</t>
-  </si>
-  <si>
-    <t>Lpr seudun ympäristötoimi</t>
-  </si>
-  <si>
-    <t>Esitys- esiintymis- ja tek.pal</t>
-  </si>
-  <si>
-    <t>Sosiaali- ja terveyspalvelut</t>
+    <t>Lasten kotihoidon tuki</t>
   </si>
 </sst>
 </file>
@@ -552,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABB5432-A83C-41AA-BAB1-D34D251CFB1E}">
-  <dimension ref="A1:Q367"/>
+  <dimension ref="A1:Q375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,49 +643,49 @@
         <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D2">
-        <v>1519</v>
+        <v>13490</v>
       </c>
       <c r="E2">
-        <v>67122</v>
+        <v>38975</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>1195</v>
+        <v>4390</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L2">
-        <v>1010000</v>
+        <v>324.5</v>
       </c>
       <c r="M2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="O2">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>8080</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -672,10 +696,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D3">
-        <v>1949</v>
+        <v>13490</v>
       </c>
       <c r="E3">
         <v>38975</v>
@@ -699,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <v>324.5</v>
+        <v>145215.28</v>
       </c>
       <c r="M3">
         <v>38</v>
@@ -714,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="Q3">
-        <v>3811</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -725,19 +749,19 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>43862</v>
+        <v>43984</v>
       </c>
       <c r="D4">
-        <v>1949</v>
+        <v>13661</v>
       </c>
       <c r="E4">
-        <v>38975</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -746,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>4390</v>
+        <v>4300</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L4">
-        <v>145215.28</v>
+        <v>14247356</v>
       </c>
       <c r="M4">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O4">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q4">
-        <v>3810</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -778,10 +802,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>43865</v>
+        <v>43984</v>
       </c>
       <c r="D5">
-        <v>2404</v>
+        <v>14189</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -793,34 +817,34 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>4300</v>
+        <v>4820</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L5">
-        <v>14224492</v>
+        <v>5056</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O5">
-        <v>500</v>
+        <v>217</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q5">
-        <v>5000</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -831,49 +855,49 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>43867</v>
+        <v>43983</v>
       </c>
       <c r="D6">
-        <v>2709</v>
+        <v>15059</v>
       </c>
       <c r="E6">
-        <v>425</v>
+        <v>38975</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J6">
-        <v>4742</v>
+        <v>4410</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="L6">
-        <v>545725</v>
+        <v>859.26</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O6">
-        <v>222</v>
+        <v>420</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q6">
-        <v>2242</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -884,49 +908,49 @@
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>43864</v>
+        <v>43983</v>
       </c>
       <c r="D7">
-        <v>3198</v>
+        <v>15077</v>
       </c>
       <c r="E7">
-        <v>77161</v>
+        <v>34912</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>4420</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7">
+        <v>240123.99</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
         <v>42</v>
       </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7">
-        <v>1195</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7">
-        <v>115000</v>
-      </c>
-      <c r="M7">
-        <v>80</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
       <c r="O7">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q7">
-        <v>8080</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -937,49 +961,49 @@
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>43867</v>
+        <v>43983</v>
       </c>
       <c r="D8">
-        <v>3219</v>
+        <v>15077</v>
       </c>
       <c r="E8">
-        <v>77161</v>
+        <v>34912</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>4420</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8">
+        <v>6566.71</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
         <v>42</v>
       </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>1195</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8">
-        <v>130000</v>
-      </c>
-      <c r="M8">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
       <c r="O8">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q8">
-        <v>8080</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -990,49 +1014,49 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>43865</v>
+        <v>43997</v>
       </c>
       <c r="D9">
-        <v>3287</v>
+        <v>15145</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>4820</v>
+        <v>4470</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L9">
-        <v>5056</v>
+        <v>1047.2</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O9">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Q9">
-        <v>2170</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1043,49 +1067,49 @@
         <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>43868</v>
+        <v>43997</v>
       </c>
       <c r="D10">
-        <v>3567</v>
+        <v>15156</v>
       </c>
       <c r="E10">
-        <v>77161</v>
+        <v>38975</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>1195</v>
+        <v>4390</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L10">
-        <v>185000</v>
+        <v>150</v>
       </c>
       <c r="M10">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O10">
-        <v>800</v>
+        <v>243</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Q10">
-        <v>8080</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1096,49 +1120,49 @@
         <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>43874</v>
+        <v>43997</v>
       </c>
       <c r="D11">
-        <v>3620</v>
+        <v>15160</v>
       </c>
       <c r="E11">
-        <v>77161</v>
+        <v>38975</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>4390</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>1107.27</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
         <v>42</v>
       </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11">
-        <v>1195</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11">
-        <v>115000</v>
-      </c>
-      <c r="M11">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
       <c r="O11">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q11">
-        <v>8080</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1149,49 +1173,49 @@
         <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>43875</v>
+        <v>43985</v>
       </c>
       <c r="D12">
-        <v>3621</v>
+        <v>15171</v>
       </c>
       <c r="E12">
+        <v>77161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <v>43</v>
-      </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J12">
-        <v>4440</v>
+        <v>1195</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>170000</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O12">
-        <v>217</v>
+        <v>800</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q12">
-        <v>2191</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1202,19 +1226,19 @@
         <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>43875</v>
+        <v>43997</v>
       </c>
       <c r="D13">
-        <v>3621</v>
+        <v>15304</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>43</v>
@@ -1223,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>4440</v>
+        <v>4410</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>1605.25</v>
       </c>
       <c r="M13">
         <v>20</v>
@@ -1244,7 +1268,7 @@
         <v>31</v>
       </c>
       <c r="Q13">
-        <v>2189</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1255,19 +1279,19 @@
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>43875</v>
+        <v>43998</v>
       </c>
       <c r="D14">
-        <v>3621</v>
+        <v>15374</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>34912</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H14">
         <v>43</v>
@@ -1276,28 +1300,28 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>4440</v>
+        <v>4420</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>727.27</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O14">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q14">
-        <v>2181</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1308,49 +1332,49 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>43875</v>
+        <v>43993</v>
       </c>
       <c r="D15">
-        <v>3824</v>
+        <v>15401</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>10253</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J15">
-        <v>4350</v>
+        <v>4700</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>265622.78999999998</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O15">
-        <v>411</v>
+        <v>210</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Q15">
-        <v>4120</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1361,10 +1385,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>43879</v>
+        <v>43998</v>
       </c>
       <c r="D16">
-        <v>3961</v>
+        <v>15433</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -1388,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="L16">
-        <v>7112246</v>
+        <v>7123678</v>
       </c>
       <c r="M16">
         <v>50</v>
@@ -1414,19 +1438,19 @@
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>43878</v>
+        <v>43998</v>
       </c>
       <c r="D17">
-        <v>3973</v>
+        <v>15648</v>
       </c>
       <c r="E17">
         <v>77161</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H17">
         <v>11</v>
@@ -1441,7 +1465,7 @@
         <v>34</v>
       </c>
       <c r="L17">
-        <v>77500</v>
+        <v>145000</v>
       </c>
       <c r="M17">
         <v>80</v>
@@ -1467,49 +1491,49 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>43875</v>
+        <v>43999</v>
       </c>
       <c r="D18">
-        <v>3990</v>
+        <v>15655</v>
       </c>
       <c r="E18">
-        <v>425</v>
+        <v>77161</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J18">
-        <v>4345</v>
+        <v>1195</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="L18">
-        <v>5500</v>
+        <v>75000</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O18">
-        <v>222</v>
+        <v>800</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Q18">
-        <v>2241</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1520,10 +1544,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>43862</v>
+        <v>43999</v>
       </c>
       <c r="D19">
-        <v>4200</v>
+        <v>15672</v>
       </c>
       <c r="E19">
         <v>38975</v>
@@ -1535,19 +1559,19 @@
         <v>19</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>4410</v>
+        <v>4520</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L19">
-        <v>5.44</v>
+        <v>50.69</v>
       </c>
       <c r="M19">
         <v>20</v>
@@ -1573,10 +1597,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>43862</v>
+        <v>43999</v>
       </c>
       <c r="D20">
-        <v>4286</v>
+        <v>15672</v>
       </c>
       <c r="E20">
         <v>38975</v>
@@ -1588,19 +1612,19 @@
         <v>19</v>
       </c>
       <c r="H20">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J20">
-        <v>4410</v>
+        <v>4520</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L20">
-        <v>514.24</v>
+        <v>53.43</v>
       </c>
       <c r="M20">
         <v>20</v>
@@ -1615,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="Q20">
-        <v>2188</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1626,49 +1650,49 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>43875</v>
+        <v>43992</v>
       </c>
       <c r="D21">
-        <v>4342</v>
+        <v>15680</v>
       </c>
       <c r="E21">
+        <v>77161</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21">
         <v>11</v>
       </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21">
-        <v>43</v>
-      </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J21">
-        <v>4440</v>
+        <v>1195</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>80000</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O21">
-        <v>210</v>
+        <v>800</v>
       </c>
       <c r="P21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q21">
-        <v>2152</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1679,49 +1703,49 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>43875</v>
+        <v>43990</v>
       </c>
       <c r="D22">
-        <v>4342</v>
+        <v>15721</v>
       </c>
       <c r="E22">
+        <v>77161</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22">
-        <v>43</v>
-      </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J22">
-        <v>4440</v>
+        <v>1195</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>73505.070000000007</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O22">
-        <v>210</v>
+        <v>800</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q22">
-        <v>2138</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1732,49 +1756,49 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>43875</v>
+        <v>43990</v>
       </c>
       <c r="D23">
-        <v>4342</v>
+        <v>15723</v>
       </c>
       <c r="E23">
+        <v>77161</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23">
         <v>11</v>
       </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <v>43</v>
-      </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J23">
-        <v>4440</v>
+        <v>1195</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>90000</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O23">
-        <v>210</v>
+        <v>800</v>
       </c>
       <c r="P23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q23">
-        <v>2136</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1785,19 +1809,19 @@
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>43875</v>
+        <v>43999</v>
       </c>
       <c r="D24">
-        <v>4342</v>
+        <v>15765</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H24">
         <v>43</v>
@@ -1806,28 +1830,28 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>4440</v>
+        <v>4390</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O24">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q24">
-        <v>2132</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1838,19 +1862,19 @@
         <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>43875</v>
+        <v>43999</v>
       </c>
       <c r="D25">
-        <v>4342</v>
+        <v>15822</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>43</v>
@@ -1859,28 +1883,28 @@
         <v>20</v>
       </c>
       <c r="J25">
-        <v>4440</v>
+        <v>4380</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>1705</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O25">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q25">
-        <v>2130</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1891,19 +1915,19 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>43875</v>
+        <v>43999</v>
       </c>
       <c r="D26">
-        <v>4342</v>
+        <v>15822</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H26">
         <v>43</v>
@@ -1912,28 +1936,28 @@
         <v>20</v>
       </c>
       <c r="J26">
-        <v>4440</v>
+        <v>4380</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O26">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q26">
-        <v>2100</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1944,10 +1968,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D27">
-        <v>4612</v>
+        <v>16072</v>
       </c>
       <c r="E27">
         <v>38975</v>
@@ -1971,22 +1995,22 @@
         <v>32</v>
       </c>
       <c r="L27">
-        <v>647</v>
+        <v>3933</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O27">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q27">
-        <v>3810</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1997,10 +2021,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D28">
-        <v>4612</v>
+        <v>16072</v>
       </c>
       <c r="E28">
         <v>38975</v>
@@ -2018,28 +2042,28 @@
         <v>20</v>
       </c>
       <c r="J28">
-        <v>4390</v>
+        <v>4410</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L28">
-        <v>192112.51</v>
+        <v>2861</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O28">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="P28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q28">
-        <v>3810</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2050,10 +2074,10 @@
         <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D29">
-        <v>4613</v>
+        <v>16072</v>
       </c>
       <c r="E29">
         <v>38975</v>
@@ -2071,28 +2095,28 @@
         <v>20</v>
       </c>
       <c r="J29">
-        <v>4390</v>
+        <v>4410</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L29">
-        <v>224909.44</v>
+        <v>350</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O29">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="P29" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q29">
-        <v>3810</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2103,10 +2127,10 @@
         <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D30">
-        <v>4615</v>
+        <v>16072</v>
       </c>
       <c r="E30">
         <v>38975</v>
@@ -2124,28 +2148,28 @@
         <v>20</v>
       </c>
       <c r="J30">
-        <v>4380</v>
+        <v>4410</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L30">
-        <v>71253.87</v>
+        <v>3500</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N30" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O30">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q30">
-        <v>3810</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2156,10 +2180,10 @@
         <v>17</v>
       </c>
       <c r="C31" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D31">
-        <v>4615</v>
+        <v>16072</v>
       </c>
       <c r="E31">
         <v>38975</v>
@@ -2177,28 +2201,28 @@
         <v>20</v>
       </c>
       <c r="J31">
-        <v>4390</v>
+        <v>4410</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L31">
-        <v>-133011.19</v>
+        <v>1790</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O31">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="P31" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q31">
-        <v>3810</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2209,10 +2233,10 @@
         <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D32">
-        <v>4616</v>
+        <v>16072</v>
       </c>
       <c r="E32">
         <v>38975</v>
@@ -2230,28 +2254,28 @@
         <v>20</v>
       </c>
       <c r="J32">
-        <v>4390</v>
+        <v>4410</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L32">
-        <v>-61757.32</v>
+        <v>6344</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O32">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="P32" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q32">
-        <v>3810</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2262,19 +2286,19 @@
         <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>43875</v>
+        <v>43983</v>
       </c>
       <c r="D33">
-        <v>4623</v>
+        <v>16072</v>
       </c>
       <c r="E33">
-        <v>425</v>
+        <v>38975</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H33">
         <v>43</v>
@@ -2283,13 +2307,13 @@
         <v>20</v>
       </c>
       <c r="J33">
-        <v>4440</v>
+        <v>4410</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L33">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="M33">
         <v>20</v>
@@ -2298,13 +2322,13 @@
         <v>30</v>
       </c>
       <c r="O33">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q33">
-        <v>2152</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2315,10 +2339,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="1">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="D34">
-        <v>4822</v>
+        <v>16072</v>
       </c>
       <c r="E34">
         <v>38975</v>
@@ -2342,7 +2366,7 @@
         <v>36</v>
       </c>
       <c r="L34">
-        <v>249.88</v>
+        <v>587</v>
       </c>
       <c r="M34">
         <v>20</v>
@@ -2351,13 +2375,13 @@
         <v>30</v>
       </c>
       <c r="O34">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q34">
-        <v>2100</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2368,19 +2392,19 @@
         <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>43886</v>
+        <v>43983</v>
       </c>
       <c r="D35">
-        <v>4853</v>
+        <v>16072</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H35">
         <v>43</v>
@@ -2389,13 +2413,13 @@
         <v>20</v>
       </c>
       <c r="J35">
-        <v>4440</v>
+        <v>4410</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L35">
-        <v>374</v>
+        <v>4160</v>
       </c>
       <c r="M35">
         <v>20</v>
@@ -2410,7 +2434,7 @@
         <v>31</v>
       </c>
       <c r="Q35">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2421,19 +2445,19 @@
         <v>17</v>
       </c>
       <c r="C36" s="1">
-        <v>43887</v>
+        <v>43983</v>
       </c>
       <c r="D36">
-        <v>5532</v>
+        <v>16072</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H36">
         <v>43</v>
@@ -2442,13 +2466,13 @@
         <v>20</v>
       </c>
       <c r="J36">
-        <v>4430</v>
+        <v>4380</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L36">
-        <v>41.2</v>
+        <v>728</v>
       </c>
       <c r="M36">
         <v>20</v>
@@ -2463,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="Q36">
-        <v>2191</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2474,10 +2498,10 @@
         <v>17</v>
       </c>
       <c r="C37" s="1">
-        <v>43890</v>
+        <v>43983</v>
       </c>
       <c r="D37">
-        <v>5552</v>
+        <v>16072</v>
       </c>
       <c r="E37">
         <v>38975</v>
@@ -2495,13 +2519,13 @@
         <v>20</v>
       </c>
       <c r="J37">
-        <v>4380</v>
+        <v>4410</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L37">
-        <v>8966.23</v>
+        <v>1250</v>
       </c>
       <c r="M37">
         <v>20</v>
@@ -2510,13 +2534,13 @@
         <v>30</v>
       </c>
       <c r="O37">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q37">
-        <v>2152</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2527,10 +2551,10 @@
         <v>17</v>
       </c>
       <c r="C38" s="1">
-        <v>43890</v>
+        <v>43983</v>
       </c>
       <c r="D38">
-        <v>6166</v>
+        <v>16072</v>
       </c>
       <c r="E38">
         <v>38975</v>
@@ -2548,28 +2572,28 @@
         <v>20</v>
       </c>
       <c r="J38">
-        <v>4410</v>
+        <v>4380</v>
       </c>
       <c r="K38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L38">
-        <v>50.33</v>
+        <v>3341</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O38">
-        <v>420</v>
+        <v>217</v>
       </c>
       <c r="P38" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q38">
-        <v>4231</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2580,10 +2604,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="1">
-        <v>43890</v>
+        <v>43983</v>
       </c>
       <c r="D39">
-        <v>6293</v>
+        <v>16072</v>
       </c>
       <c r="E39">
         <v>38975</v>
@@ -2607,7 +2631,7 @@
         <v>36</v>
       </c>
       <c r="L39">
-        <v>22.47</v>
+        <v>1656</v>
       </c>
       <c r="M39">
         <v>20</v>
@@ -2622,7 +2646,7 @@
         <v>31</v>
       </c>
       <c r="Q39">
-        <v>2170</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2633,10 +2657,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="1">
-        <v>43890</v>
+        <v>43983</v>
       </c>
       <c r="D40">
-        <v>6393</v>
+        <v>16072</v>
       </c>
       <c r="E40">
         <v>38975</v>
@@ -2660,7 +2684,7 @@
         <v>36</v>
       </c>
       <c r="L40">
-        <v>30.25</v>
+        <v>390</v>
       </c>
       <c r="M40">
         <v>20</v>
@@ -2669,85 +2693,1085 @@
         <v>30</v>
       </c>
       <c r="O40">
+        <v>210</v>
+      </c>
+      <c r="P40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>405</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44006</v>
+      </c>
+      <c r="D41">
+        <v>16162</v>
+      </c>
+      <c r="E41">
+        <v>38975</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>4380</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41">
+        <v>124</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41">
+        <v>210</v>
+      </c>
+      <c r="P41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q41">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43983</v>
+      </c>
+      <c r="D42">
+        <v>16209</v>
+      </c>
+      <c r="E42">
+        <v>38975</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>4380</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42">
+        <v>51818.33</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42">
+        <v>380</v>
+      </c>
+      <c r="P42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>405</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43983</v>
+      </c>
+      <c r="D43">
+        <v>16209</v>
+      </c>
+      <c r="E43">
+        <v>38975</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>4390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43">
+        <v>97331.74</v>
+      </c>
+      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43">
+        <v>380</v>
+      </c>
+      <c r="P43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43983</v>
+      </c>
+      <c r="D44">
+        <v>16214</v>
+      </c>
+      <c r="E44">
+        <v>38975</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>4410</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44">
+        <v>29.39</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44">
+        <v>210</v>
+      </c>
+      <c r="P44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>405</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43983</v>
+      </c>
+      <c r="D45">
+        <v>16225</v>
+      </c>
+      <c r="E45">
+        <v>38975</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>4390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>195142.58</v>
+      </c>
+      <c r="M45">
+        <v>38</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45">
+        <v>380</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>405</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44007</v>
+      </c>
+      <c r="D46">
+        <v>16264</v>
+      </c>
+      <c r="E46">
+        <v>77161</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46">
+        <v>1195</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46">
+        <v>80000</v>
+      </c>
+      <c r="M46">
+        <v>80</v>
+      </c>
+      <c r="N46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46">
+        <v>800</v>
+      </c>
+      <c r="P46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>405</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44006</v>
+      </c>
+      <c r="D47">
+        <v>16275</v>
+      </c>
+      <c r="E47">
+        <v>38975</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>4380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47">
+        <v>186</v>
+      </c>
+      <c r="M47">
+        <v>38</v>
+      </c>
+      <c r="N47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47">
+        <v>380</v>
+      </c>
+      <c r="P47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>405</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44000</v>
+      </c>
+      <c r="D48">
+        <v>16630</v>
+      </c>
+      <c r="E48">
+        <v>77161</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <v>1195</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48">
+        <v>20000</v>
+      </c>
+      <c r="M48">
+        <v>80</v>
+      </c>
+      <c r="N48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48">
+        <v>800</v>
+      </c>
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>405</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D49">
+        <v>16658</v>
+      </c>
+      <c r="E49">
+        <v>77161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49">
+        <v>1195</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49">
+        <v>40000</v>
+      </c>
+      <c r="M49">
+        <v>80</v>
+      </c>
+      <c r="N49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49">
+        <v>800</v>
+      </c>
+      <c r="P49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>405</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43998</v>
+      </c>
+      <c r="D50">
+        <v>16662</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>4430</v>
+      </c>
+      <c r="K50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L50">
+        <v>41.2</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50">
         <v>217</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P50" t="s">
         <v>31</v>
       </c>
-      <c r="Q40">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>405</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D51">
+        <v>16680</v>
+      </c>
+      <c r="E51">
+        <v>38975</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>4380</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51">
+        <v>1240</v>
+      </c>
+      <c r="M51">
+        <v>38</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51">
+        <v>380</v>
+      </c>
+      <c r="P51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>405</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D52">
+        <v>16684</v>
+      </c>
+      <c r="E52">
+        <v>38975</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>4380</v>
+      </c>
+      <c r="K52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52">
+        <v>109.26</v>
+      </c>
+      <c r="M52">
+        <v>41</v>
+      </c>
+      <c r="N52" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52">
+        <v>411</v>
+      </c>
+      <c r="P52" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q52">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>405</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D53">
+        <v>17025</v>
+      </c>
+      <c r="E53">
+        <v>38975</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>4380</v>
+      </c>
+      <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53">
+        <v>950</v>
+      </c>
+      <c r="M53">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53">
+        <v>251</v>
+      </c>
+      <c r="P53" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q53">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>405</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D54">
+        <v>17025</v>
+      </c>
+      <c r="E54">
+        <v>38975</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>4380</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54">
+        <v>950</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54">
+        <v>251</v>
+      </c>
+      <c r="P54" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>405</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D55">
+        <v>17025</v>
+      </c>
+      <c r="E55">
+        <v>38975</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>4380</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55">
+        <v>1470</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55">
+        <v>251</v>
+      </c>
+      <c r="P55" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q55">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>405</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D56">
+        <v>17074</v>
+      </c>
+      <c r="E56">
+        <v>38975</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>4410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56">
+        <v>449.16</v>
+      </c>
+      <c r="M56">
+        <v>41</v>
+      </c>
+      <c r="N56" t="s">
+        <v>39</v>
+      </c>
+      <c r="O56">
+        <v>420</v>
+      </c>
+      <c r="P56" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>405</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D57">
+        <v>17541</v>
+      </c>
+      <c r="E57">
+        <v>38975</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <v>4380</v>
+      </c>
+      <c r="K57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57">
+        <v>300.7</v>
+      </c>
+      <c r="M57">
+        <v>41</v>
+      </c>
+      <c r="N57" t="s">
+        <v>39</v>
+      </c>
+      <c r="O57">
+        <v>420</v>
+      </c>
+      <c r="P57" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q57">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>405</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D58">
+        <v>17563</v>
+      </c>
+      <c r="E58">
+        <v>34912</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <v>4420</v>
+      </c>
+      <c r="K58" t="s">
+        <v>57</v>
+      </c>
+      <c r="L58">
+        <v>9514.14</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58">
+        <v>340</v>
+      </c>
+      <c r="P58" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>405</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D59">
+        <v>17624</v>
+      </c>
+      <c r="E59">
+        <v>38975</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>4390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59">
+        <v>150</v>
+      </c>
+      <c r="M59">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59">
+        <v>243</v>
+      </c>
+      <c r="P59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q59">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>405</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D60">
+        <v>17645</v>
+      </c>
+      <c r="E60">
+        <v>34912</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60">
+        <v>4420</v>
+      </c>
+      <c r="K60" t="s">
+        <v>57</v>
+      </c>
+      <c r="L60">
+        <v>235743.44</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60">
+        <v>340</v>
+      </c>
+      <c r="P60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q60">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
@@ -3658,6 +4682,30 @@
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Ostolaskut_suurimmat.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Ostolaskut_suurimmat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ad193d0551a0b3/Asiakirjat/GitHub/UiPath_Jeff/Harjoitustyö_Ryhmä5_Jeff/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DC5FCD61-556E-4560-82D7-50C8DD8C83B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F44C9EA-F99D-4A91-90A4-FBDFD7D57830}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A2192-D880-4AE4-A44A-0FE0B2C62046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2507" yWindow="0" windowWidth="17493" windowHeight="12613" xr2:uid="{F120896B-792D-47AE-B658-9EDDF2D41443}"/>
+    <workbookView xWindow="2280" yWindow="2895" windowWidth="20790" windowHeight="11625" xr2:uid="{F120896B-792D-47AE-B658-9EDDF2D41443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,179 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="56">
+  <si>
+    <t>Kuntanro</t>
+  </si>
+  <si>
+    <t>Kaupungin nimi</t>
+  </si>
+  <si>
+    <t>Tositepäivä</t>
+  </si>
+  <si>
+    <t>Tositenro</t>
+  </si>
+  <si>
+    <t>Toimittajanro</t>
+  </si>
+  <si>
+    <t>Y-tunnus</t>
+  </si>
+  <si>
+    <t>Toimittaja</t>
+  </si>
+  <si>
+    <t>Tiliryhmän nro</t>
+  </si>
+  <si>
+    <t>Tiliryhmä</t>
+  </si>
+  <si>
+    <t>Lask.tili</t>
+  </si>
+  <si>
+    <t>Tili</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t>Toimiala nro</t>
+  </si>
+  <si>
+    <t>Toimiala</t>
+  </si>
+  <si>
+    <t>Vastuualue nro</t>
+  </si>
+  <si>
+    <t>Vastuualue</t>
+  </si>
+  <si>
+    <t>Kustannuspaikka</t>
+  </si>
+  <si>
+    <t>Lappeenrannan kaupunki</t>
+  </si>
+  <si>
+    <t>0725937-3</t>
+  </si>
+  <si>
+    <t>E-K SOSIAALI- JA TERVEYSPIIRI</t>
+  </si>
+  <si>
+    <t>Palvelujen ostot</t>
+  </si>
+  <si>
+    <t>Asiakaspalvelujen ostot</t>
+  </si>
+  <si>
+    <t>Sosaali- ja terveystoimi</t>
+  </si>
+  <si>
+    <t>Sosiaali- ja terveystoimi</t>
+  </si>
+  <si>
+    <t>0162017-2</t>
+  </si>
+  <si>
+    <t>SAIMAAN TUKIPALVELUT OY</t>
+  </si>
+  <si>
+    <t>Rak.ja al.rak.-ja kunn.pitopal</t>
+  </si>
+  <si>
+    <t>Tilakeskus</t>
+  </si>
+  <si>
+    <t>2752472-8</t>
+  </si>
+  <si>
+    <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
+  </si>
+  <si>
+    <t>Aineelliset hyödykkeet</t>
+  </si>
+  <si>
+    <t>Keskeneräiset muut rakennukset</t>
+  </si>
+  <si>
+    <t>Investoinnit</t>
+  </si>
+  <si>
+    <t>Puhtaanapito- ja pesulapalvelu</t>
+  </si>
+  <si>
+    <t>Liikuntapalvelut</t>
+  </si>
+  <si>
+    <t>Ulkoliikuntapaikat</t>
+  </si>
+  <si>
+    <t>1565583-5</t>
+  </si>
+  <si>
+    <t>YIT SUOMI OY</t>
+  </si>
+  <si>
+    <t>Vuokrakulut</t>
+  </si>
+  <si>
+    <t>Rak.-/huoneistojen vuokrakulut</t>
+  </si>
+  <si>
+    <t>Lapset ja nuoret</t>
+  </si>
+  <si>
+    <t>Perusopetus</t>
+  </si>
+  <si>
+    <t>Majoitus- ja ravitsemupalvelut</t>
+  </si>
+  <si>
+    <t>Lukiokoulutus</t>
+  </si>
+  <si>
+    <t>2977551-2</t>
+  </si>
+  <si>
+    <t>PEAB INDUSTRI OY</t>
+  </si>
+  <si>
+    <t>Keskeneräiset johtoverkostot</t>
+  </si>
+  <si>
+    <t>Keskeneräiset maa- ja vesirake</t>
+  </si>
+  <si>
+    <t>Kaupunkikehitys</t>
+  </si>
+  <si>
+    <t>Kadut ja ympäristö</t>
+  </si>
+  <si>
+    <t>Aineet, tarvikkeet ja tavarat</t>
+  </si>
+  <si>
+    <t>Rakennusmateriaali</t>
+  </si>
+  <si>
+    <t>Painatukset ja ilmoitukset</t>
+  </si>
+  <si>
+    <t>Maakunnallinen palvelutoiminta</t>
+  </si>
+  <si>
+    <t>Lpr seudun ympäristötoimi</t>
+  </si>
+  <si>
+    <t>Koulutus- ja kulttuuripalvelut</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,1137 +558,4990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABB5432-A83C-41AA-BAB1-D34D251CFB1E}">
-  <dimension ref="C2:C375"/>
+  <dimension ref="A1:Q375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.8203125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D2">
+        <v>16465</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>4300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>14247356</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>500</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>405</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44015</v>
+      </c>
+      <c r="D3">
+        <v>16750</v>
+      </c>
+      <c r="E3">
+        <v>38975</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>4390</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3">
+        <v>324.5</v>
+      </c>
+      <c r="M3">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3">
+        <v>380</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>405</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44015</v>
+      </c>
+      <c r="D4">
+        <v>16750</v>
+      </c>
+      <c r="E4">
+        <v>38975</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>4390</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>145215.28</v>
+      </c>
+      <c r="M4">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4">
+        <v>380</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44014</v>
+      </c>
+      <c r="D5">
+        <v>17290</v>
+      </c>
+      <c r="E5">
+        <v>77161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>1195</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>130000</v>
+      </c>
+      <c r="M5">
+        <v>80</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>800</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>405</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D6">
+        <v>17365</v>
+      </c>
+      <c r="E6">
+        <v>38975</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>4380</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6">
+        <v>950</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>251</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D7">
+        <v>17365</v>
+      </c>
+      <c r="E7">
+        <v>38975</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>4380</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7">
+        <v>950</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>251</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>405</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D8">
+        <v>17365</v>
+      </c>
+      <c r="E8">
+        <v>38975</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>4380</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8">
+        <v>1470</v>
+      </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>251</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D9">
+        <v>17420</v>
+      </c>
+      <c r="E9">
+        <v>77161</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>1195</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>120000</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>800</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>405</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D10">
+        <v>17735</v>
+      </c>
+      <c r="E10">
+        <v>67122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>1195</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>400000</v>
+      </c>
+      <c r="M10">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <v>800</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44015</v>
+      </c>
+      <c r="D11">
+        <v>17745</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>4820</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11">
+        <v>5526.69</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>217</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>405</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D12">
+        <v>17748</v>
+      </c>
+      <c r="E12">
+        <v>38975</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>4410</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <v>256.5</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>217</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>405</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D13">
+        <v>17748</v>
+      </c>
+      <c r="E13">
+        <v>38975</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>4410</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13">
+        <v>260.82</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <v>217</v>
+      </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>405</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D14">
+        <v>17748</v>
+      </c>
+      <c r="E14">
+        <v>38975</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>4410</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14">
+        <v>259.74</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14">
+        <v>217</v>
+      </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D15">
+        <v>17748</v>
+      </c>
+      <c r="E15">
+        <v>38975</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>4410</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15">
+        <v>204.12</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15">
+        <v>217</v>
+      </c>
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>405</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D16">
+        <v>17748</v>
+      </c>
+      <c r="E16">
+        <v>38975</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>4410</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16">
+        <v>77.760000000000005</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>217</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>405</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D17">
+        <v>17748</v>
+      </c>
+      <c r="E17">
+        <v>38975</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>4410</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17">
+        <v>11.88</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17">
+        <v>217</v>
+      </c>
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>405</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D18">
+        <v>17748</v>
+      </c>
+      <c r="E18">
+        <v>38975</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>4410</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18">
+        <v>5.94</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <v>217</v>
+      </c>
+      <c r="P18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>405</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D19">
+        <v>17748</v>
+      </c>
+      <c r="E19">
+        <v>38975</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>4410</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19">
+        <v>196.56</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19">
+        <v>217</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>405</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D20">
+        <v>17748</v>
+      </c>
+      <c r="E20">
+        <v>38975</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>4410</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20">
+        <v>151.74</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>217</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>405</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D21">
+        <v>17748</v>
+      </c>
+      <c r="E21">
+        <v>38975</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>4410</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21">
+        <v>168.48</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>217</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>405</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D22">
+        <v>17748</v>
+      </c>
+      <c r="E22">
+        <v>38975</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>4410</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22">
+        <v>832.14</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>217</v>
+      </c>
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>405</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D23">
+        <v>17928</v>
+      </c>
+      <c r="E23">
+        <v>38975</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>4390</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <v>1146.08</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23">
+        <v>221</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>405</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44026</v>
+      </c>
+      <c r="D24">
+        <v>17948</v>
+      </c>
+      <c r="E24">
+        <v>77161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>1195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24">
+        <v>167500</v>
+      </c>
+      <c r="M24">
+        <v>80</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <v>800</v>
+      </c>
+      <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>405</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44021</v>
+      </c>
+      <c r="D25">
+        <v>17964</v>
+      </c>
+      <c r="E25">
+        <v>77161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>1195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>110000</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25">
+        <v>800</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>405</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D26">
+        <v>18078</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>4300</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>7123678</v>
+      </c>
+      <c r="M26">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>500</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>405</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44028</v>
+      </c>
+      <c r="D27">
+        <v>18259</v>
+      </c>
+      <c r="E27">
+        <v>73978</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>1186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27">
+        <v>945.52</v>
+      </c>
+      <c r="M27">
+        <v>80</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27">
+        <v>800</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>405</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44032</v>
+      </c>
+      <c r="D28">
+        <v>18348</v>
+      </c>
+      <c r="E28">
+        <v>73978</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>1186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28">
+        <v>-1285</v>
+      </c>
+      <c r="M28">
+        <v>80</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28">
+        <v>800</v>
+      </c>
+      <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>405</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D29">
+        <v>18356</v>
+      </c>
+      <c r="E29">
+        <v>73978</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <v>1194</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29">
+        <v>2010</v>
+      </c>
+      <c r="M29">
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29">
+        <v>800</v>
+      </c>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>405</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D30">
+        <v>18358</v>
+      </c>
+      <c r="E30">
+        <v>73978</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>1186</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30">
+        <v>1285</v>
+      </c>
+      <c r="M30">
+        <v>80</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30">
+        <v>800</v>
+      </c>
+      <c r="P30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>405</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44028</v>
+      </c>
+      <c r="D31">
+        <v>18405</v>
+      </c>
+      <c r="E31">
+        <v>73978</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>1194</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31">
+        <v>3336.63</v>
+      </c>
+      <c r="M31">
+        <v>80</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31">
+        <v>800</v>
+      </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44027</v>
+      </c>
+      <c r="D32">
+        <v>18433</v>
+      </c>
+      <c r="E32">
+        <v>77161</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>1195</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>20000</v>
+      </c>
+      <c r="M32">
+        <v>80</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32">
+        <v>800</v>
+      </c>
+      <c r="P32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>405</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44028</v>
+      </c>
+      <c r="D33">
+        <v>18437</v>
+      </c>
+      <c r="E33">
+        <v>73978</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>1194</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33">
+        <v>595.76</v>
+      </c>
+      <c r="M33">
+        <v>80</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33">
+        <v>800</v>
+      </c>
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>405</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44027</v>
+      </c>
+      <c r="D34">
+        <v>18445</v>
+      </c>
+      <c r="E34">
+        <v>73978</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>1194</v>
+      </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34">
+        <v>2136.2399999999998</v>
+      </c>
+      <c r="M34">
+        <v>80</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>800</v>
+      </c>
+      <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>405</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D35">
+        <v>18465</v>
+      </c>
+      <c r="E35">
+        <v>77161</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>1195</v>
+      </c>
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>50000</v>
+      </c>
+      <c r="M35">
+        <v>80</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35">
+        <v>800</v>
+      </c>
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>405</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D36">
+        <v>18477</v>
+      </c>
+      <c r="E36">
+        <v>73978</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>4390</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36">
+        <v>66581.649999999994</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36">
+        <v>340</v>
+      </c>
+      <c r="P36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>405</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D37">
+        <v>18478</v>
+      </c>
+      <c r="E37">
+        <v>73978</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>4390</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37">
+        <v>20139.5</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37">
+        <v>340</v>
+      </c>
+      <c r="P37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>405</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D38">
+        <v>18480</v>
+      </c>
+      <c r="E38">
+        <v>73978</v>
+      </c>
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>4390</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38">
+        <v>33689.949999999997</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38">
+        <v>340</v>
+      </c>
+      <c r="P38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>405</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D39">
+        <v>18492</v>
+      </c>
+      <c r="E39">
+        <v>73978</v>
+      </c>
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>1194</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39">
+        <v>14762.25</v>
+      </c>
+      <c r="M39">
+        <v>80</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39">
+        <v>800</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>405</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44032</v>
+      </c>
+      <c r="D40">
+        <v>18501</v>
+      </c>
+      <c r="E40">
+        <v>73978</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>1186</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40">
+        <v>1092.25</v>
+      </c>
+      <c r="M40">
+        <v>80</v>
+      </c>
+      <c r="N40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40">
+        <v>800</v>
+      </c>
+      <c r="P40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>405</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44028</v>
+      </c>
+      <c r="D41">
+        <v>18541</v>
+      </c>
+      <c r="E41">
+        <v>73978</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41">
+        <v>4590</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41">
+        <v>339.48</v>
+      </c>
+      <c r="M41">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41">
+        <v>340</v>
+      </c>
+      <c r="P41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q41">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44034</v>
+      </c>
+      <c r="D42">
+        <v>18602</v>
+      </c>
+      <c r="E42">
+        <v>77161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42">
+        <v>1195</v>
+      </c>
+      <c r="K42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42">
+        <v>110000</v>
+      </c>
+      <c r="M42">
+        <v>80</v>
+      </c>
+      <c r="N42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42">
+        <v>800</v>
+      </c>
+      <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>405</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44028</v>
+      </c>
+      <c r="D43">
+        <v>18626</v>
+      </c>
+      <c r="E43">
+        <v>73978</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>1186</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43">
+        <v>103.85</v>
+      </c>
+      <c r="M43">
+        <v>80</v>
+      </c>
+      <c r="N43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43">
+        <v>800</v>
+      </c>
+      <c r="P43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44028</v>
+      </c>
+      <c r="D44">
+        <v>18626</v>
+      </c>
+      <c r="E44">
+        <v>73978</v>
+      </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>1194</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44">
+        <v>260.43</v>
+      </c>
+      <c r="M44">
+        <v>80</v>
+      </c>
+      <c r="N44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44">
+        <v>800</v>
+      </c>
+      <c r="P44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>405</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D45">
+        <v>18689</v>
+      </c>
+      <c r="E45">
+        <v>38975</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>4390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45">
+        <v>210</v>
+      </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45">
+        <v>251</v>
+      </c>
+      <c r="P45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>405</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D46">
+        <v>18768</v>
+      </c>
+      <c r="E46">
+        <v>73978</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46">
+        <v>1194</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46">
+        <v>35155.9</v>
+      </c>
+      <c r="M46">
+        <v>80</v>
+      </c>
+      <c r="N46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46">
+        <v>800</v>
+      </c>
+      <c r="P46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>405</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44029</v>
+      </c>
+      <c r="D47">
+        <v>18769</v>
+      </c>
+      <c r="E47">
+        <v>73978</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>4390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47">
+        <v>12833.86</v>
+      </c>
+      <c r="M47">
+        <v>30</v>
+      </c>
+      <c r="N47" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47">
+        <v>340</v>
+      </c>
+      <c r="P47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q47">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>405</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44033</v>
+      </c>
+      <c r="D48">
+        <v>18776</v>
+      </c>
+      <c r="E48">
+        <v>73978</v>
+      </c>
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48">
+        <v>1194</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48">
+        <v>92767.33</v>
+      </c>
+      <c r="M48">
+        <v>80</v>
+      </c>
+      <c r="N48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48">
+        <v>800</v>
+      </c>
+      <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>405</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44035</v>
+      </c>
+      <c r="D49">
+        <v>18868</v>
+      </c>
+      <c r="E49">
+        <v>73978</v>
+      </c>
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <v>1186</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49">
+        <v>450.5</v>
+      </c>
+      <c r="M49">
+        <v>80</v>
+      </c>
+      <c r="N49" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49">
+        <v>800</v>
+      </c>
+      <c r="P49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>405</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44036</v>
+      </c>
+      <c r="D50">
+        <v>18908</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>4350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50">
+        <v>25</v>
+      </c>
+      <c r="M50">
+        <v>41</v>
+      </c>
+      <c r="N50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O50">
+        <v>411</v>
+      </c>
+      <c r="P50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q50">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>405</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44035</v>
+      </c>
+      <c r="D51">
+        <v>18949</v>
+      </c>
+      <c r="E51">
+        <v>73978</v>
+      </c>
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51">
+        <v>1194</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51">
+        <v>748</v>
+      </c>
+      <c r="M51">
+        <v>80</v>
+      </c>
+      <c r="N51" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51">
+        <v>800</v>
+      </c>
+      <c r="P51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>405</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44040</v>
+      </c>
+      <c r="D52">
+        <v>19021</v>
+      </c>
+      <c r="E52">
+        <v>73978</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52">
+        <v>1194</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52">
+        <v>2693.11</v>
+      </c>
+      <c r="M52">
+        <v>80</v>
+      </c>
+      <c r="N52" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52">
+        <v>800</v>
+      </c>
+      <c r="P52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>405</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44040</v>
+      </c>
+      <c r="D53">
+        <v>19026</v>
+      </c>
+      <c r="E53">
+        <v>73978</v>
+      </c>
+      <c r="F53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>1194</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53">
+        <v>1181.44</v>
+      </c>
+      <c r="M53">
+        <v>80</v>
+      </c>
+      <c r="N53" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53">
+        <v>800</v>
+      </c>
+      <c r="P53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>405</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44041</v>
+      </c>
+      <c r="D54">
+        <v>19064</v>
+      </c>
+      <c r="E54">
+        <v>73978</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>1194</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54">
+        <v>19.34</v>
+      </c>
+      <c r="M54">
+        <v>80</v>
+      </c>
+      <c r="N54" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54">
+        <v>800</v>
+      </c>
+      <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>405</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44041</v>
+      </c>
+      <c r="D55">
+        <v>19069</v>
+      </c>
+      <c r="E55">
+        <v>73978</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55">
+        <v>1194</v>
+      </c>
+      <c r="K55" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55">
+        <v>417.83</v>
+      </c>
+      <c r="M55">
+        <v>80</v>
+      </c>
+      <c r="N55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55">
+        <v>800</v>
+      </c>
+      <c r="P55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>405</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44040</v>
+      </c>
+      <c r="D56">
+        <v>19077</v>
+      </c>
+      <c r="E56">
+        <v>73978</v>
+      </c>
+      <c r="F56" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56">
+        <v>1194</v>
+      </c>
+      <c r="K56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56">
+        <v>150.18</v>
+      </c>
+      <c r="M56">
+        <v>80</v>
+      </c>
+      <c r="N56" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56">
+        <v>800</v>
+      </c>
+      <c r="P56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>405</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44042</v>
+      </c>
+      <c r="D57">
+        <v>19150</v>
+      </c>
+      <c r="E57">
+        <v>73978</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57">
+        <v>1194</v>
+      </c>
+      <c r="K57" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57">
+        <v>347.92</v>
+      </c>
+      <c r="M57">
+        <v>80</v>
+      </c>
+      <c r="N57" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57">
+        <v>800</v>
+      </c>
+      <c r="P57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>405</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44041</v>
+      </c>
+      <c r="D58">
+        <v>19161</v>
+      </c>
+      <c r="E58">
+        <v>73978</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <v>1194</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58">
+        <v>31.05</v>
+      </c>
+      <c r="M58">
+        <v>80</v>
+      </c>
+      <c r="N58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58">
+        <v>800</v>
+      </c>
+      <c r="P58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>405</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44033</v>
+      </c>
+      <c r="D59">
+        <v>19173</v>
+      </c>
+      <c r="E59">
+        <v>73978</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>4390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59">
+        <v>114993.57</v>
+      </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
+      <c r="N59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59">
+        <v>340</v>
+      </c>
+      <c r="P59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q59">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>405</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44043</v>
+      </c>
+      <c r="D60">
+        <v>19193</v>
+      </c>
+      <c r="E60">
+        <v>73978</v>
+      </c>
+      <c r="F60" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60">
+        <v>1194</v>
+      </c>
+      <c r="K60" t="s">
+        <v>47</v>
+      </c>
+      <c r="L60">
+        <v>478.78</v>
+      </c>
+      <c r="M60">
+        <v>80</v>
+      </c>
+      <c r="N60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60">
+        <v>800</v>
+      </c>
+      <c r="P60" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>405</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D61">
+        <v>19283</v>
+      </c>
+      <c r="E61">
+        <v>38975</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <v>4380</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61">
+        <v>62115.51</v>
+      </c>
+      <c r="M61">
+        <v>38</v>
+      </c>
+      <c r="N61" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61">
+        <v>380</v>
+      </c>
+      <c r="P61" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>405</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D62">
+        <v>19283</v>
+      </c>
+      <c r="E62">
+        <v>38975</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>4390</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62">
+        <v>122947.11</v>
+      </c>
+      <c r="M62">
+        <v>38</v>
+      </c>
+      <c r="N62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62">
+        <v>380</v>
+      </c>
+      <c r="P62" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>405</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D63">
+        <v>19284</v>
+      </c>
+      <c r="E63">
+        <v>38975</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63">
+        <v>4390</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63">
+        <v>222513.3</v>
+      </c>
+      <c r="M63">
+        <v>38</v>
+      </c>
+      <c r="N63" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63">
+        <v>380</v>
+      </c>
+      <c r="P63" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>405</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44041</v>
+      </c>
+      <c r="D64">
+        <v>19309</v>
+      </c>
+      <c r="E64">
+        <v>77161</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64">
+        <v>1195</v>
+      </c>
+      <c r="K64" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64">
+        <v>75000</v>
+      </c>
+      <c r="M64">
+        <v>80</v>
+      </c>
+      <c r="N64" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64">
+        <v>800</v>
+      </c>
+      <c r="P64" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>405</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44041</v>
+      </c>
+      <c r="D65">
+        <v>19393</v>
+      </c>
+      <c r="E65">
+        <v>73978</v>
+      </c>
+      <c r="F65" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65">
+        <v>1194</v>
+      </c>
+      <c r="K65" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65">
+        <v>33097</v>
+      </c>
+      <c r="M65">
+        <v>80</v>
+      </c>
+      <c r="N65" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65">
+        <v>800</v>
+      </c>
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>405</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44043</v>
+      </c>
+      <c r="D66">
+        <v>19421</v>
+      </c>
+      <c r="E66">
+        <v>73978</v>
+      </c>
+      <c r="F66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66">
+        <v>1194</v>
+      </c>
+      <c r="K66" t="s">
+        <v>47</v>
+      </c>
+      <c r="L66">
+        <v>92.2</v>
+      </c>
+      <c r="M66">
+        <v>80</v>
+      </c>
+      <c r="N66" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66">
+        <v>800</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>405</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44043</v>
+      </c>
+      <c r="D67">
+        <v>19453</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67">
+        <v>4440</v>
+      </c>
+      <c r="K67" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67">
+        <v>11899.32</v>
+      </c>
+      <c r="M67">
+        <v>20</v>
+      </c>
+      <c r="N67" t="s">
+        <v>40</v>
+      </c>
+      <c r="O67">
+        <v>221</v>
+      </c>
+      <c r="P67" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q67">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>405</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44040</v>
+      </c>
+      <c r="D68">
+        <v>19468</v>
+      </c>
+      <c r="E68">
+        <v>73978</v>
+      </c>
+      <c r="F68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>4390</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68">
+        <v>82444.02</v>
+      </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
+      <c r="N68" t="s">
+        <v>48</v>
+      </c>
+      <c r="O68">
+        <v>340</v>
+      </c>
+      <c r="P68" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q68">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>405</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44040</v>
+      </c>
+      <c r="D69">
+        <v>19475</v>
+      </c>
+      <c r="E69">
+        <v>73978</v>
+      </c>
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69">
+        <v>4590</v>
+      </c>
+      <c r="K69" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69">
+        <v>692.64</v>
+      </c>
+      <c r="M69">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>48</v>
+      </c>
+      <c r="O69">
+        <v>340</v>
+      </c>
+      <c r="P69" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q69">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>405</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44040</v>
+      </c>
+      <c r="D70">
+        <v>19479</v>
+      </c>
+      <c r="E70">
+        <v>73978</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70">
+        <v>1194</v>
+      </c>
+      <c r="K70" t="s">
+        <v>47</v>
+      </c>
+      <c r="L70">
+        <v>24713.35</v>
+      </c>
+      <c r="M70">
+        <v>80</v>
+      </c>
+      <c r="N70" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70">
+        <v>800</v>
+      </c>
+      <c r="P70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>405</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44043</v>
+      </c>
+      <c r="D71">
+        <v>19501</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>4440</v>
+      </c>
+      <c r="K71" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71">
+        <v>121232.17</v>
+      </c>
+      <c r="M71">
+        <v>20</v>
+      </c>
+      <c r="N71" t="s">
+        <v>40</v>
+      </c>
+      <c r="O71">
+        <v>217</v>
+      </c>
+      <c r="P71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q71">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>405</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44043</v>
+      </c>
+      <c r="D72">
+        <v>19502</v>
+      </c>
+      <c r="E72">
+        <v>73978</v>
+      </c>
+      <c r="F72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72">
+        <v>1194</v>
+      </c>
+      <c r="K72" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72">
+        <v>2763.85</v>
+      </c>
+      <c r="M72">
+        <v>80</v>
+      </c>
+      <c r="N72" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72">
+        <v>800</v>
+      </c>
+      <c r="P72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>405</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44043</v>
+      </c>
+      <c r="D73">
+        <v>19524</v>
+      </c>
+      <c r="E73">
+        <v>73978</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73">
+        <v>4390</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73">
+        <v>24423.1</v>
+      </c>
+      <c r="M73">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>48</v>
+      </c>
+      <c r="O73">
+        <v>340</v>
+      </c>
+      <c r="P73" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q73">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>405</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44043</v>
+      </c>
+      <c r="D74">
+        <v>19661</v>
+      </c>
+      <c r="E74">
+        <v>73978</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <v>1194</v>
+      </c>
+      <c r="K74" t="s">
+        <v>47</v>
+      </c>
+      <c r="L74">
+        <v>82530</v>
+      </c>
+      <c r="M74">
+        <v>80</v>
+      </c>
+      <c r="N74" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74">
+        <v>800</v>
+      </c>
+      <c r="P74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>405</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44033</v>
+      </c>
+      <c r="D75">
+        <v>19917</v>
+      </c>
+      <c r="E75">
+        <v>73978</v>
+      </c>
+      <c r="F75" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75">
+        <v>4390</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75">
+        <v>128027.4</v>
+      </c>
+      <c r="M75">
+        <v>30</v>
+      </c>
+      <c r="N75" t="s">
+        <v>48</v>
+      </c>
+      <c r="O75">
+        <v>340</v>
+      </c>
+      <c r="P75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q75">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>405</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44041</v>
+      </c>
+      <c r="D76">
+        <v>19929</v>
+      </c>
+      <c r="E76">
+        <v>73978</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76">
+        <v>4390</v>
+      </c>
+      <c r="K76" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76">
+        <v>45904</v>
+      </c>
+      <c r="M76">
+        <v>38</v>
+      </c>
+      <c r="N76" t="s">
+        <v>27</v>
+      </c>
+      <c r="O76">
+        <v>380</v>
+      </c>
+      <c r="P76" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>405</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44040</v>
+      </c>
+      <c r="D77">
+        <v>20041</v>
+      </c>
+      <c r="E77">
+        <v>73978</v>
+      </c>
+      <c r="F77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77">
+        <v>4390</v>
+      </c>
+      <c r="K77" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77">
+        <v>27958.95</v>
+      </c>
+      <c r="M77">
+        <v>30</v>
+      </c>
+      <c r="N77" t="s">
+        <v>48</v>
+      </c>
+      <c r="O77">
+        <v>340</v>
+      </c>
+      <c r="P77" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q77">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
     </row>
   </sheetData>

--- a/Harjoitustyö_Ryhmä5_Jeff/Data/Ostolaskut_suurimmat.xlsx
+++ b/Harjoitustyö_Ryhmä5_Jeff/Data/Ostolaskut_suurimmat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valtteri.000\Documents\UiPath\Jeff\Harjoitustyö_Ryhmä5_Jeff\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1910203-3243-42F4-B0BB-6C14AB4ECCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4CB1C9-43C8-498B-AC0C-180DD4E54A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="1440" windowWidth="27240" windowHeight="11625" xr2:uid="{8AC47F49-F054-418C-9681-E39965A022F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="65">
   <si>
     <t>Kuntanro</t>
   </si>
@@ -136,15 +136,6 @@
     <t>Puhtaanapito- ja pesulapalvelu</t>
   </si>
   <si>
-    <t>0165069-7</t>
-  </si>
-  <si>
-    <t>SAVONLINJA OY</t>
-  </si>
-  <si>
-    <t>Matkustus- ja kuljetuspalvelut</t>
-  </si>
-  <si>
     <t>Kaupunkikehitys</t>
   </si>
   <si>
@@ -166,12 +157,6 @@
     <t>Lukiokoulutus</t>
   </si>
   <si>
-    <t>1565583-5</t>
-  </si>
-  <si>
-    <t>YIT SUOMI OY</t>
-  </si>
-  <si>
     <t>Varhaiskasvatus</t>
   </si>
   <si>
@@ -179,12 +164,6 @@
   </si>
   <si>
     <t>Ulkoliikuntapaikat</t>
-  </si>
-  <si>
-    <t>Kulttuuripalvelut</t>
-  </si>
-  <si>
-    <t>Museo</t>
   </si>
   <si>
     <t>Aineet, tarvikkeet ja tavarat</t>
@@ -196,25 +175,61 @@
     <t>PALLAS RAKENNUS KAAKKOIS-SUOMI</t>
   </si>
   <si>
-    <t>Kalusto</t>
-  </si>
-  <si>
     <t>Maakunnallinen palvelutoiminta</t>
   </si>
   <si>
     <t>E-K Pelastuslaitos</t>
   </si>
   <si>
-    <t>Lääkkeet</t>
-  </si>
-  <si>
     <t>Muut palvelut</t>
   </si>
   <si>
-    <t>Nuorisopalvelut</t>
+    <t>1796558-9</t>
   </si>
   <si>
-    <t>Elintarvikkeet</t>
+    <t>LPR ENERGIA OY</t>
+  </si>
+  <si>
+    <t>Sähkö ja kaasu</t>
+  </si>
+  <si>
+    <t>E-K maaseututoimi</t>
+  </si>
+  <si>
+    <t>Lämmitys</t>
+  </si>
+  <si>
+    <t>Liikuntahallit</t>
+  </si>
+  <si>
+    <t>Yrityspalvelut / 2021 Elinvoim</t>
+  </si>
+  <si>
+    <t>Projektitoiminta</t>
+  </si>
+  <si>
+    <t>Lpr seudun ympäristötoimi</t>
+  </si>
+  <si>
+    <t>0246246-0</t>
+  </si>
+  <si>
+    <t>KANSANELÄKELAITOS</t>
+  </si>
+  <si>
+    <t>Avustukset</t>
+  </si>
+  <si>
+    <t>Lasten kotihoidon tuki</t>
+  </si>
+  <si>
+    <t>Toimisto- ja koulutarvikkeet</t>
+  </si>
+  <si>
+    <t>Yhteiset palvelut</t>
+  </si>
+  <si>
+    <t>Konsernin yhteiset</t>
   </si>
 </sst>
 </file>
@@ -567,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202327BA-7D19-4D75-9161-2CBB26618213}">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +649,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D2">
-        <v>25400</v>
+        <v>8000</v>
       </c>
       <c r="E2">
         <v>38975</v>
@@ -661,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>327.26</v>
+        <v>324.5</v>
       </c>
       <c r="M2">
         <v>38</v>
@@ -687,10 +702,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D3">
-        <v>25400</v>
+        <v>8000</v>
       </c>
       <c r="E3">
         <v>38975</v>
@@ -714,7 +729,7 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <v>146451.04999999999</v>
+        <v>145215.28</v>
       </c>
       <c r="M3">
         <v>38</v>
@@ -740,10 +755,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>44106</v>
+        <v>43922</v>
       </c>
       <c r="D4">
-        <v>25786</v>
+        <v>8258</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -793,10 +808,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>44106</v>
+        <v>43924</v>
       </c>
       <c r="D5">
-        <v>25876</v>
+        <v>9082</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -820,7 +835,7 @@
         <v>29</v>
       </c>
       <c r="L5">
-        <v>5276.69</v>
+        <v>5056</v>
       </c>
       <c r="M5">
         <v>20</v>
@@ -846,49 +861,49 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D6">
-        <v>26115</v>
+        <v>9223</v>
       </c>
       <c r="E6">
-        <v>67122</v>
+        <v>23551</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>4569</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6">
+        <v>412.56</v>
+      </c>
+      <c r="M6">
         <v>38</v>
       </c>
-      <c r="J6">
-        <v>1195</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6">
-        <v>700000</v>
-      </c>
-      <c r="M6">
-        <v>80</v>
-      </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O6">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="Q6">
-        <v>8080</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -899,46 +914,46 @@
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>44106</v>
+        <v>43928</v>
       </c>
       <c r="D7">
-        <v>26127</v>
+        <v>9224</v>
       </c>
       <c r="E7">
         <v>77161</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>1195</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L7">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M7">
         <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O7">
         <v>800</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>8080</v>
@@ -952,46 +967,46 @@
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>44110</v>
+        <v>43923</v>
       </c>
       <c r="D8">
-        <v>26640</v>
+        <v>9409</v>
       </c>
       <c r="E8">
         <v>77161</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J8">
         <v>1195</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L8">
-        <v>125000</v>
+        <v>65000</v>
       </c>
       <c r="M8">
         <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O8">
         <v>800</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q8">
         <v>8080</v>
@@ -1005,49 +1020,49 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>44112</v>
+        <v>43922</v>
       </c>
       <c r="D9">
-        <v>27009</v>
+        <v>9417</v>
       </c>
       <c r="E9">
-        <v>34912</v>
+        <v>23551</v>
       </c>
       <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>4569</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9">
+        <v>413.65</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="O9">
+        <v>340</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="H9">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <v>4580</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9">
-        <v>161.29</v>
-      </c>
-      <c r="M9">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9">
-        <v>217</v>
-      </c>
-      <c r="P9" t="s">
-        <v>31</v>
-      </c>
       <c r="Q9">
-        <v>2196</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1058,49 +1073,49 @@
         <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D10">
-        <v>27049</v>
+        <v>9442</v>
       </c>
       <c r="E10">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J10">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L10">
-        <v>186</v>
+        <v>1565.98</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q10">
-        <v>2131</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1111,49 +1126,49 @@
         <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>44113</v>
+        <v>43922</v>
       </c>
       <c r="D11">
-        <v>27139</v>
+        <v>9443</v>
       </c>
       <c r="E11">
-        <v>67122</v>
+        <v>23551</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J11">
-        <v>1195</v>
+        <v>4569</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L11">
-        <v>210000</v>
+        <v>1708.73</v>
       </c>
       <c r="M11">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O11">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q11">
-        <v>8080</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1164,49 +1179,49 @@
         <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>44112</v>
+        <v>43922</v>
       </c>
       <c r="D12">
-        <v>27161</v>
+        <v>9447</v>
       </c>
       <c r="E12">
-        <v>77161</v>
+        <v>23551</v>
       </c>
       <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>4569</v>
+      </c>
+      <c r="K12" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12">
+        <v>165.06</v>
+      </c>
+      <c r="M12">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12">
+        <v>414</v>
+      </c>
+      <c r="P12" t="s">
         <v>52</v>
       </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12">
-        <v>1195</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12">
-        <v>140000</v>
-      </c>
-      <c r="M12">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12">
-        <v>800</v>
-      </c>
-      <c r="P12" t="s">
-        <v>40</v>
-      </c>
       <c r="Q12">
-        <v>8080</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1217,49 +1232,49 @@
         <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D13">
-        <v>27193</v>
+        <v>9461</v>
       </c>
       <c r="E13">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J13">
-        <v>4390</v>
+        <v>4569</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L13">
-        <v>162.24</v>
+        <v>2241.39</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O13">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="Q13">
-        <v>2433</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1270,49 +1285,49 @@
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D14">
-        <v>27355</v>
+        <v>9465</v>
       </c>
       <c r="E14">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J14">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>305.89</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O14">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Q14">
-        <v>4223</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1323,49 +1338,49 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>44118</v>
+        <v>43922</v>
       </c>
       <c r="D15">
-        <v>27592</v>
+        <v>9473</v>
       </c>
       <c r="E15">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J15">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L15">
-        <v>45.5</v>
+        <v>128.54</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O15">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q15">
-        <v>2515</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1376,49 +1391,49 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>44118</v>
+        <v>43922</v>
       </c>
       <c r="D16">
-        <v>27592</v>
+        <v>9529</v>
       </c>
       <c r="E16">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J16">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L16">
-        <v>91</v>
+        <v>234.55</v>
       </c>
       <c r="M16">
         <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O16">
         <v>251</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q16">
-        <v>2514</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1429,49 +1444,49 @@
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>44118</v>
+        <v>43922</v>
       </c>
       <c r="D17">
-        <v>27592</v>
+        <v>9529</v>
       </c>
       <c r="E17">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J17">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L17">
-        <v>289.45</v>
+        <v>401.84</v>
       </c>
       <c r="M17">
         <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O17">
         <v>251</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q17">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1482,49 +1497,49 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>44118</v>
+        <v>43922</v>
       </c>
       <c r="D18">
-        <v>27592</v>
+        <v>9534</v>
       </c>
       <c r="E18">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J18">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L18">
-        <v>136.5</v>
+        <v>520.51</v>
       </c>
       <c r="M18">
         <v>25</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O18">
         <v>251</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q18">
-        <v>2510</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1535,49 +1550,49 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D19">
-        <v>27735</v>
+        <v>9536</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>23551</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J19">
-        <v>4533</v>
+        <v>4568</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L19">
-        <v>510.89</v>
+        <v>6145.07</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O19">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="P19" t="s">
         <v>42</v>
       </c>
       <c r="Q19">
-        <v>2212</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1588,49 +1603,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D20">
-        <v>27735</v>
+        <v>9538</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>23551</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J20">
-        <v>4533</v>
+        <v>4569</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L20">
-        <v>510.89</v>
+        <v>583.57000000000005</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O20">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Q20">
-        <v>2211</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1641,49 +1656,49 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D21">
-        <v>27735</v>
+        <v>9553</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>23551</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H21">
         <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J21">
-        <v>4533</v>
+        <v>4569</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L21">
-        <v>445.73</v>
+        <v>38.76</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O21">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q21">
-        <v>2174</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1694,49 +1709,49 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D22">
-        <v>27945</v>
+        <v>9572</v>
       </c>
       <c r="E22">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J22">
-        <v>4390</v>
+        <v>4569</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L22">
-        <v>5047.4799999999996</v>
+        <v>758.47</v>
       </c>
       <c r="M22">
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O22">
         <v>340</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q22">
-        <v>3411</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1747,49 +1762,49 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D23">
-        <v>27968</v>
+        <v>9573</v>
       </c>
       <c r="E23">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J23">
-        <v>4470</v>
+        <v>4569</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L23">
-        <v>151.44</v>
+        <v>21.75</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O23">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q23">
-        <v>2152</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1800,49 +1815,49 @@
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>44118</v>
+        <v>43922</v>
       </c>
       <c r="D24">
-        <v>27998</v>
+        <v>9574</v>
       </c>
       <c r="E24">
-        <v>77161</v>
+        <v>23551</v>
       </c>
       <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>4569</v>
+      </c>
+      <c r="K24" t="s">
         <v>51</v>
       </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24">
-        <v>1195</v>
-      </c>
-      <c r="K24" t="s">
-        <v>39</v>
-      </c>
       <c r="L24">
-        <v>65000</v>
+        <v>22.82</v>
       </c>
       <c r="M24">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O24">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="P24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q24">
-        <v>8080</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1853,49 +1868,49 @@
         <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>44126</v>
+        <v>43922</v>
       </c>
       <c r="D25">
-        <v>28092</v>
+        <v>9575</v>
       </c>
       <c r="E25">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J25">
-        <v>4390</v>
+        <v>4569</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L25">
-        <v>210</v>
+        <v>23.07</v>
       </c>
       <c r="M25">
         <v>25</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O25">
         <v>251</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q25">
-        <v>2516</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1906,49 +1921,49 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>44120</v>
+        <v>43922</v>
       </c>
       <c r="D26">
-        <v>28179</v>
+        <v>9576</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>23551</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J26">
-        <v>4300</v>
+        <v>4569</v>
       </c>
       <c r="K26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26">
+        <v>21.75</v>
+      </c>
+      <c r="M26">
         <v>25</v>
       </c>
-      <c r="L26">
-        <v>7123678</v>
-      </c>
-      <c r="M26">
-        <v>50</v>
-      </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="O26">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q26">
-        <v>5000</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1959,10 +1974,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D27">
-        <v>28261</v>
+        <v>9659</v>
       </c>
       <c r="E27">
         <v>38975</v>
@@ -1980,28 +1995,28 @@
         <v>20</v>
       </c>
       <c r="J27">
-        <v>4380</v>
+        <v>4410</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L27">
-        <v>55717.27</v>
+        <v>2289.42</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O27">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q27">
-        <v>3810</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2012,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D28">
-        <v>28261</v>
+        <v>9689</v>
       </c>
       <c r="E28">
         <v>38975</v>
@@ -2033,28 +2048,28 @@
         <v>20</v>
       </c>
       <c r="J28">
-        <v>4390</v>
+        <v>4410</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L28">
-        <v>96472.95</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="O28">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="P28" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="Q28">
-        <v>3810</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2065,49 +2080,49 @@
         <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>44105</v>
+        <v>43930</v>
       </c>
       <c r="D29">
-        <v>28263</v>
+        <v>9718</v>
       </c>
       <c r="E29">
-        <v>38975</v>
+        <v>77161</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J29">
-        <v>4390</v>
+        <v>1195</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L29">
-        <v>129048.48</v>
+        <v>80000</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O29">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="P29" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q29">
-        <v>3810</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2118,49 +2133,49 @@
         <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>44120</v>
+        <v>43922</v>
       </c>
       <c r="D30">
-        <v>28266</v>
+        <v>9760</v>
       </c>
       <c r="E30">
-        <v>77161</v>
+        <v>23551</v>
       </c>
       <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30">
+        <v>4569</v>
+      </c>
+      <c r="K30" t="s">
         <v>51</v>
       </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30">
-        <v>1195</v>
-      </c>
-      <c r="K30" t="s">
-        <v>39</v>
-      </c>
       <c r="L30">
-        <v>70000</v>
+        <v>151.33000000000001</v>
       </c>
       <c r="M30">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O30">
-        <v>800</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q30">
-        <v>8080</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2171,49 +2186,49 @@
         <v>17</v>
       </c>
       <c r="C31" s="1">
-        <v>44125</v>
+        <v>43922</v>
       </c>
       <c r="D31">
-        <v>28301</v>
+        <v>9763</v>
       </c>
       <c r="E31">
-        <v>77161</v>
+        <v>23551</v>
       </c>
       <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31">
+        <v>4569</v>
+      </c>
+      <c r="K31" t="s">
         <v>51</v>
       </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31">
-        <v>1195</v>
-      </c>
-      <c r="K31" t="s">
-        <v>39</v>
-      </c>
       <c r="L31">
-        <v>10000</v>
+        <v>48.02</v>
       </c>
       <c r="M31">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O31">
-        <v>800</v>
+        <v>310</v>
       </c>
       <c r="P31" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q31">
-        <v>8080</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2224,49 +2239,49 @@
         <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>44126</v>
+        <v>43922</v>
       </c>
       <c r="D32">
-        <v>28302</v>
+        <v>9767</v>
       </c>
       <c r="E32">
-        <v>67122</v>
+        <v>23551</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J32">
-        <v>1195</v>
+        <v>4569</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L32">
-        <v>135000</v>
+        <v>155.44</v>
       </c>
       <c r="M32">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N32" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O32">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="Q32">
-        <v>8080</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2277,49 +2292,49 @@
         <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>44126</v>
+        <v>43922</v>
       </c>
       <c r="D33">
-        <v>28314</v>
+        <v>9771</v>
       </c>
       <c r="E33">
-        <v>67122</v>
+        <v>23551</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J33">
-        <v>1195</v>
+        <v>4569</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L33">
-        <v>360000</v>
+        <v>121.38</v>
       </c>
       <c r="M33">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O33">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="P33" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="Q33">
-        <v>8080</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2330,49 +2345,49 @@
         <v>17</v>
       </c>
       <c r="C34" s="1">
-        <v>44125</v>
+        <v>43922</v>
       </c>
       <c r="D34">
-        <v>28476</v>
+        <v>9784</v>
       </c>
       <c r="E34">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H34">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J34">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K34" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L34">
+        <v>65.819999999999993</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34">
         <v>310</v>
       </c>
-      <c r="M34">
-        <v>20</v>
-      </c>
-      <c r="N34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O34">
-        <v>222</v>
-      </c>
       <c r="P34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q34">
-        <v>2234</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2383,49 +2398,49 @@
         <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D35">
-        <v>28595</v>
+        <v>9786</v>
       </c>
       <c r="E35">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J35">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L35">
-        <v>2013.71</v>
+        <v>32.35</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O35">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="P35" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q35">
-        <v>2181</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2436,49 +2451,49 @@
         <v>17</v>
       </c>
       <c r="C36" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D36">
-        <v>28765</v>
+        <v>9791</v>
       </c>
       <c r="E36">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H36">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J36">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L36">
-        <v>12.1</v>
+        <v>106.84</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O36">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q36">
-        <v>2201</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2489,49 +2504,49 @@
         <v>17</v>
       </c>
       <c r="C37" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D37">
-        <v>28765</v>
+        <v>9804</v>
       </c>
       <c r="E37">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H37">
         <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J37">
-        <v>4520</v>
+        <v>4569</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L37">
-        <v>73.98</v>
+        <v>149.13</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O37">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="P37" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q37">
-        <v>2200</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2542,49 +2557,49 @@
         <v>17</v>
       </c>
       <c r="C38" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D38">
-        <v>28765</v>
+        <v>9805</v>
       </c>
       <c r="E38">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H38">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J38">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L38">
-        <v>24.2</v>
+        <v>84.77</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O38">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="P38" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q38">
-        <v>2188</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2595,49 +2610,49 @@
         <v>17</v>
       </c>
       <c r="C39" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D39">
-        <v>28765</v>
+        <v>9807</v>
       </c>
       <c r="E39">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J39">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L39">
-        <v>6.05</v>
+        <v>21.75</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O39">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="P39" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q39">
-        <v>2180</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2648,49 +2663,49 @@
         <v>17</v>
       </c>
       <c r="C40" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D40">
-        <v>28765</v>
+        <v>9810</v>
       </c>
       <c r="E40">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J40">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L40">
-        <v>75.75</v>
+        <v>28.37</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O40">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q40">
-        <v>2146</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2701,19 +2716,19 @@
         <v>17</v>
       </c>
       <c r="C41" s="1">
-        <v>44105</v>
+        <v>43938</v>
       </c>
       <c r="D41">
-        <v>28828</v>
+        <v>9858</v>
       </c>
       <c r="E41">
-        <v>38975</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H41">
         <v>43</v>
@@ -2722,28 +2737,28 @@
         <v>20</v>
       </c>
       <c r="J41">
-        <v>4380</v>
+        <v>4300</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L41">
-        <v>1456</v>
+        <v>7123678</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O41">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="P41" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q41">
-        <v>2211</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2754,49 +2769,49 @@
         <v>17</v>
       </c>
       <c r="C42" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D42">
-        <v>28828</v>
+        <v>9939</v>
       </c>
       <c r="E42">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H42">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J42">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K42" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L42">
-        <v>1820</v>
+        <v>686.84</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O42">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="P42" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="Q42">
-        <v>2201</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2807,49 +2822,49 @@
         <v>17</v>
       </c>
       <c r="C43" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D43">
-        <v>28828</v>
+        <v>9949</v>
       </c>
       <c r="E43">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H43">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J43">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K43" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L43">
-        <v>2639</v>
+        <v>719.52</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O43">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q43">
-        <v>2200</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -2860,49 +2875,49 @@
         <v>17</v>
       </c>
       <c r="C44" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D44">
-        <v>28828</v>
+        <v>9950</v>
       </c>
       <c r="E44">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J44">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L44">
-        <v>4901</v>
+        <v>87</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O44">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q44">
-        <v>2200</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -2913,49 +2928,49 @@
         <v>17</v>
       </c>
       <c r="C45" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D45">
-        <v>28828</v>
+        <v>9964</v>
       </c>
       <c r="E45">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H45">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J45">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K45" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L45">
-        <v>3510</v>
+        <v>21.76</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O45">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q45">
-        <v>2197</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2966,49 +2981,49 @@
         <v>17</v>
       </c>
       <c r="C46" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D46">
-        <v>28828</v>
+        <v>9964</v>
       </c>
       <c r="E46">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H46">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J46">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L46">
-        <v>4342</v>
+        <v>44.19</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O46">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q46">
-        <v>2196</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3019,49 +3034,49 @@
         <v>17</v>
       </c>
       <c r="C47" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D47">
-        <v>28828</v>
+        <v>9971</v>
       </c>
       <c r="E47">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J47">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K47" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L47">
-        <v>364</v>
+        <v>50.31</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O47">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q47">
-        <v>2192</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -3072,19 +3087,19 @@
         <v>17</v>
       </c>
       <c r="C48" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D48">
-        <v>28828</v>
+        <v>9995</v>
       </c>
       <c r="E48">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H48">
         <v>43</v>
@@ -3093,28 +3108,28 @@
         <v>20</v>
       </c>
       <c r="J48">
-        <v>4380</v>
+        <v>4470</v>
       </c>
       <c r="K48" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L48">
-        <v>2808</v>
+        <v>21.75</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O48">
-        <v>217</v>
+        <v>380</v>
       </c>
       <c r="P48" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q48">
-        <v>2191</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3125,19 +3140,19 @@
         <v>17</v>
       </c>
       <c r="C49" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D49">
-        <v>28828</v>
+        <v>9996</v>
       </c>
       <c r="E49">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H49">
         <v>43</v>
@@ -3146,28 +3161,28 @@
         <v>20</v>
       </c>
       <c r="J49">
-        <v>4380</v>
+        <v>4470</v>
       </c>
       <c r="K49" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L49">
-        <v>416</v>
+        <v>302.43</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O49">
-        <v>217</v>
+        <v>380</v>
       </c>
       <c r="P49" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q49">
-        <v>2190</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3178,49 +3193,49 @@
         <v>17</v>
       </c>
       <c r="C50" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D50">
-        <v>28828</v>
+        <v>10007</v>
       </c>
       <c r="E50">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H50">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J50">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L50">
-        <v>1456</v>
+        <v>60.69</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O50">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q50">
-        <v>2189</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3231,49 +3246,49 @@
         <v>17</v>
       </c>
       <c r="C51" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D51">
-        <v>28828</v>
+        <v>10012</v>
       </c>
       <c r="E51">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H51">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J51">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L51">
-        <v>1456</v>
+        <v>21.75</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O51">
-        <v>217</v>
+        <v>380</v>
       </c>
       <c r="P51" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q51">
-        <v>2189</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3284,49 +3299,49 @@
         <v>17</v>
       </c>
       <c r="C52" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D52">
-        <v>28828</v>
+        <v>10017</v>
       </c>
       <c r="E52">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J52">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K52" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L52">
-        <v>2834</v>
+        <v>185.39</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N52" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O52">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q52">
-        <v>2188</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3337,49 +3352,49 @@
         <v>17</v>
       </c>
       <c r="C53" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D53">
-        <v>28828</v>
+        <v>10018</v>
       </c>
       <c r="E53">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J53">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K53" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L53">
-        <v>2808</v>
+        <v>118.26</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O53">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q53">
-        <v>2182</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3390,49 +3405,49 @@
         <v>17</v>
       </c>
       <c r="C54" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D54">
-        <v>28828</v>
+        <v>10020</v>
       </c>
       <c r="E54">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H54">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J54">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K54" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L54">
-        <v>2704</v>
+        <v>4641.47</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O54">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q54">
-        <v>2180</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3443,49 +3458,49 @@
         <v>17</v>
       </c>
       <c r="C55" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D55">
-        <v>28828</v>
+        <v>10021</v>
       </c>
       <c r="E55">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J55">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K55" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L55">
-        <v>323.07</v>
+        <v>37.19</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O55">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q55">
-        <v>2175</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3496,49 +3511,49 @@
         <v>17</v>
       </c>
       <c r="C56" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D56">
-        <v>28828</v>
+        <v>10022</v>
       </c>
       <c r="E56">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H56">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J56">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L56">
-        <v>2756</v>
+        <v>243.05</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O56">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q56">
-        <v>2175</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3549,49 +3564,49 @@
         <v>17</v>
       </c>
       <c r="C57" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D57">
-        <v>28828</v>
+        <v>10038</v>
       </c>
       <c r="E57">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H57">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J57">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K57" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L57">
-        <v>3094</v>
+        <v>1048.94</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O57">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="P57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q57">
-        <v>2174</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3602,49 +3617,49 @@
         <v>17</v>
       </c>
       <c r="C58" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D58">
-        <v>28828</v>
+        <v>10051</v>
       </c>
       <c r="E58">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H58">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J58">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K58" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58">
+        <v>21.75</v>
+      </c>
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
         <v>41</v>
       </c>
-      <c r="L58">
-        <v>1326</v>
-      </c>
-      <c r="M58">
-        <v>20</v>
-      </c>
-      <c r="N58" t="s">
-        <v>30</v>
-      </c>
       <c r="O58">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="P58" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q58">
-        <v>2174</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3655,49 +3670,49 @@
         <v>17</v>
       </c>
       <c r="C59" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D59">
-        <v>28828</v>
+        <v>10053</v>
       </c>
       <c r="E59">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J59">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K59" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L59">
-        <v>2080</v>
+        <v>1351.55</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O59">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="P59" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q59">
-        <v>2148</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3708,49 +3723,49 @@
         <v>17</v>
       </c>
       <c r="C60" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D60">
-        <v>28828</v>
+        <v>10054</v>
       </c>
       <c r="E60">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J60">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K60" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L60">
-        <v>858</v>
+        <v>12217.07</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O60">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="P60" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q60">
-        <v>2147</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3761,49 +3776,49 @@
         <v>17</v>
       </c>
       <c r="C61" s="1">
-        <v>44105</v>
+        <v>43929</v>
       </c>
       <c r="D61">
-        <v>28828</v>
+        <v>10082</v>
       </c>
       <c r="E61">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J61">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K61" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L61">
-        <v>546</v>
+        <v>114.82</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O61">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="P61" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q61">
-        <v>2142</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3814,10 +3829,10 @@
         <v>17</v>
       </c>
       <c r="C62" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D62">
-        <v>28828</v>
+        <v>10124</v>
       </c>
       <c r="E62">
         <v>38975</v>
@@ -3841,22 +3856,22 @@
         <v>32</v>
       </c>
       <c r="L62">
-        <v>494</v>
+        <v>3162</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N62" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O62">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="P62" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="Q62">
-        <v>2141</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3867,49 +3882,49 @@
         <v>17</v>
       </c>
       <c r="C63" s="1">
-        <v>44105</v>
+        <v>43937</v>
       </c>
       <c r="D63">
-        <v>28828</v>
+        <v>10139</v>
       </c>
       <c r="E63">
-        <v>38975</v>
+        <v>77161</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H63">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J63">
-        <v>4380</v>
+        <v>1195</v>
       </c>
       <c r="K63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L63">
-        <v>2184</v>
+        <v>70000</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O63">
-        <v>210</v>
+        <v>800</v>
       </c>
       <c r="P63" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q63">
-        <v>2138</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3920,49 +3935,49 @@
         <v>17</v>
       </c>
       <c r="C64" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D64">
-        <v>28828</v>
+        <v>10160</v>
       </c>
       <c r="E64">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H64">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J64">
-        <v>4380</v>
+        <v>4568</v>
       </c>
       <c r="K64" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L64">
-        <v>520</v>
+        <v>3961.6</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O64">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="P64" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q64">
-        <v>2137</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -3973,10 +3988,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="1">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="D65">
-        <v>28828</v>
+        <v>10230</v>
       </c>
       <c r="E65">
         <v>38975</v>
@@ -3994,28 +4009,28 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>4380</v>
+        <v>4390</v>
       </c>
       <c r="K65" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L65">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="M65">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O65">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="P65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q65">
-        <v>2130</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4026,49 +4041,49 @@
         <v>17</v>
       </c>
       <c r="C66" s="1">
-        <v>44132</v>
+        <v>43929</v>
       </c>
       <c r="D66">
-        <v>28889</v>
+        <v>10248</v>
       </c>
       <c r="E66">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H66">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J66">
-        <v>4380</v>
+        <v>4569</v>
       </c>
       <c r="K66" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L66">
-        <v>950</v>
+        <v>681.72</v>
       </c>
       <c r="M66">
         <v>25</v>
       </c>
       <c r="N66" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O66">
         <v>251</v>
       </c>
       <c r="P66" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q66">
-        <v>2514</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4079,49 +4094,49 @@
         <v>17</v>
       </c>
       <c r="C67" s="1">
-        <v>44130</v>
+        <v>43930</v>
       </c>
       <c r="D67">
-        <v>28945</v>
+        <v>10251</v>
       </c>
       <c r="E67">
-        <v>67122</v>
+        <v>59753</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H67">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J67">
-        <v>1195</v>
+        <v>4700</v>
       </c>
       <c r="K67" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L67">
-        <v>130000</v>
+        <v>261659.6</v>
       </c>
       <c r="M67">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N67" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O67">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="P67" t="s">
         <v>40</v>
       </c>
       <c r="Q67">
-        <v>8080</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4132,49 +4147,49 @@
         <v>17</v>
       </c>
       <c r="C68" s="1">
-        <v>44133</v>
+        <v>43922</v>
       </c>
       <c r="D68">
-        <v>28986</v>
+        <v>10252</v>
       </c>
       <c r="E68">
-        <v>77161</v>
+        <v>23551</v>
       </c>
       <c r="F68" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68">
+        <v>4569</v>
+      </c>
+      <c r="K68" t="s">
         <v>51</v>
       </c>
-      <c r="G68" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68">
-        <v>11</v>
-      </c>
-      <c r="I68" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68">
-        <v>1195</v>
-      </c>
-      <c r="K68" t="s">
-        <v>39</v>
-      </c>
       <c r="L68">
-        <v>60000</v>
+        <v>190.64</v>
       </c>
       <c r="M68">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O68">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="P68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q68">
-        <v>8080</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4185,49 +4200,49 @@
         <v>17</v>
       </c>
       <c r="C69" s="1">
-        <v>44131</v>
+        <v>43922</v>
       </c>
       <c r="D69">
-        <v>28991</v>
+        <v>10253</v>
       </c>
       <c r="E69">
-        <v>77161</v>
+        <v>23551</v>
       </c>
       <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69">
+        <v>4569</v>
+      </c>
+      <c r="K69" t="s">
         <v>51</v>
       </c>
-      <c r="G69" t="s">
-        <v>52</v>
-      </c>
-      <c r="H69">
-        <v>11</v>
-      </c>
-      <c r="I69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69">
-        <v>1195</v>
-      </c>
-      <c r="K69" t="s">
-        <v>39</v>
-      </c>
       <c r="L69">
-        <v>75000</v>
+        <v>7.25</v>
       </c>
       <c r="M69">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O69">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="P69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q69">
-        <v>8080</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4238,49 +4253,49 @@
         <v>17</v>
       </c>
       <c r="C70" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D70">
-        <v>29258</v>
+        <v>10285</v>
       </c>
       <c r="E70">
-        <v>34912</v>
+        <v>23551</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H70">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J70">
-        <v>4420</v>
+        <v>4569</v>
       </c>
       <c r="K70" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L70">
-        <v>50214</v>
+        <v>85.5</v>
       </c>
       <c r="M70">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N70" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O70">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="P70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q70">
-        <v>3400</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4291,49 +4306,49 @@
         <v>17</v>
       </c>
       <c r="C71" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D71">
-        <v>29510</v>
+        <v>10286</v>
       </c>
       <c r="E71">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H71">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J71">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K71" t="s">
+        <v>51</v>
+      </c>
+      <c r="L71">
+        <v>33.53</v>
+      </c>
+      <c r="M71">
+        <v>25</v>
+      </c>
+      <c r="N71" t="s">
         <v>41</v>
       </c>
-      <c r="L71">
-        <v>787.41</v>
-      </c>
-      <c r="M71">
-        <v>20</v>
-      </c>
-      <c r="N71" t="s">
-        <v>30</v>
-      </c>
       <c r="O71">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="P71" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q71">
-        <v>2201</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4344,49 +4359,49 @@
         <v>17</v>
       </c>
       <c r="C72" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D72">
-        <v>29510</v>
+        <v>10288</v>
       </c>
       <c r="E72">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H72">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J72">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K72" t="s">
+        <v>51</v>
+      </c>
+      <c r="L72">
+        <v>18.47</v>
+      </c>
+      <c r="M72">
+        <v>25</v>
+      </c>
+      <c r="N72" t="s">
         <v>41</v>
       </c>
-      <c r="L72">
-        <v>1326.12</v>
-      </c>
-      <c r="M72">
-        <v>20</v>
-      </c>
-      <c r="N72" t="s">
-        <v>30</v>
-      </c>
       <c r="O72">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="P72" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q72">
-        <v>2200</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4397,10 +4412,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D73">
-        <v>29510</v>
+        <v>10328</v>
       </c>
       <c r="E73">
         <v>38975</v>
@@ -4418,28 +4433,28 @@
         <v>20</v>
       </c>
       <c r="J73">
-        <v>4410</v>
+        <v>4390</v>
       </c>
       <c r="K73" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L73">
-        <v>305.06</v>
+        <v>148523.13</v>
       </c>
       <c r="M73">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O73">
-        <v>217</v>
+        <v>380</v>
       </c>
       <c r="P73" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q73">
-        <v>2196</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4450,10 +4465,10 @@
         <v>17</v>
       </c>
       <c r="C74" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D74">
-        <v>29510</v>
+        <v>10337</v>
       </c>
       <c r="E74">
         <v>38975</v>
@@ -4471,28 +4486,28 @@
         <v>20</v>
       </c>
       <c r="J74">
-        <v>4410</v>
+        <v>4380</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L74">
-        <v>1476.78</v>
+        <v>68992.88</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N74" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O74">
-        <v>217</v>
+        <v>380</v>
       </c>
       <c r="P74" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q74">
-        <v>2192</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4503,10 +4518,10 @@
         <v>17</v>
       </c>
       <c r="C75" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D75">
-        <v>29510</v>
+        <v>10337</v>
       </c>
       <c r="E75">
         <v>38975</v>
@@ -4524,28 +4539,28 @@
         <v>20</v>
       </c>
       <c r="J75">
-        <v>4410</v>
+        <v>4390</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L75">
-        <v>452.53</v>
+        <v>78393.72</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N75" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O75">
-        <v>217</v>
+        <v>380</v>
       </c>
       <c r="P75" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q75">
-        <v>2191</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4556,49 +4571,49 @@
         <v>17</v>
       </c>
       <c r="C76" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D76">
-        <v>29510</v>
+        <v>10389</v>
       </c>
       <c r="E76">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H76">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I76" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J76">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K76" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L76">
-        <v>10304.31</v>
+        <v>51.47</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N76" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O76">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="P76" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q76">
-        <v>2188</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4609,10 +4624,10 @@
         <v>17</v>
       </c>
       <c r="C77" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D77">
-        <v>29510</v>
+        <v>10420</v>
       </c>
       <c r="E77">
         <v>38975</v>
@@ -4630,13 +4645,13 @@
         <v>20</v>
       </c>
       <c r="J77">
-        <v>4410</v>
+        <v>4380</v>
       </c>
       <c r="K77" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L77">
-        <v>637.23</v>
+        <v>77.5</v>
       </c>
       <c r="M77">
         <v>20</v>
@@ -4645,13 +4660,13 @@
         <v>30</v>
       </c>
       <c r="O77">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P77" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q77">
-        <v>2180</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4662,49 +4677,49 @@
         <v>17</v>
       </c>
       <c r="C78" s="1">
-        <v>44135</v>
+        <v>43922</v>
       </c>
       <c r="D78">
-        <v>29510</v>
+        <v>10429</v>
       </c>
       <c r="E78">
-        <v>38975</v>
+        <v>23551</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H78">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J78">
-        <v>4410</v>
+        <v>4569</v>
       </c>
       <c r="K78" t="s">
+        <v>51</v>
+      </c>
+      <c r="L78">
+        <v>111.39</v>
+      </c>
+      <c r="M78">
+        <v>25</v>
+      </c>
+      <c r="N78" t="s">
         <v>41</v>
       </c>
-      <c r="L78">
-        <v>5785.58</v>
-      </c>
-      <c r="M78">
-        <v>20</v>
-      </c>
-      <c r="N78" t="s">
-        <v>30</v>
-      </c>
       <c r="O78">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="P78" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q78">
-        <v>2174</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4715,49 +4730,49 @@
         <v>17</v>
       </c>
       <c r="C79" s="1">
-        <v>44135</v>
+        <v>43942</v>
       </c>
       <c r="D79">
-        <v>29586</v>
+        <v>10455</v>
       </c>
       <c r="E79">
-        <v>34912</v>
+        <v>23551</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H79">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J79">
-        <v>4420</v>
+        <v>4569</v>
       </c>
       <c r="K79" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L79">
-        <v>34847.550000000003</v>
+        <v>21.75</v>
       </c>
       <c r="M79">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O79">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="P79" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q79">
-        <v>3401</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -4768,19 +4783,19 @@
         <v>17</v>
       </c>
       <c r="C80" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D80">
-        <v>29586</v>
+        <v>10479</v>
       </c>
       <c r="E80">
-        <v>34912</v>
+        <v>38975</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H80">
         <v>43</v>
@@ -4789,28 +4804,28 @@
         <v>20</v>
       </c>
       <c r="J80">
-        <v>4420</v>
+        <v>4410</v>
       </c>
       <c r="K80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L80">
-        <v>1181.81</v>
+        <v>784.54</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N80" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O80">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="P80" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q80">
-        <v>3400</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -4821,10 +4836,10 @@
         <v>17</v>
       </c>
       <c r="C81" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D81">
-        <v>29629</v>
+        <v>10580</v>
       </c>
       <c r="E81">
         <v>38975</v>
@@ -4842,13 +4857,13 @@
         <v>20</v>
       </c>
       <c r="J81">
-        <v>4390</v>
+        <v>4380</v>
       </c>
       <c r="K81" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L81">
-        <v>93</v>
+        <v>60.2</v>
       </c>
       <c r="M81">
         <v>38</v>
@@ -4874,34 +4889,34 @@
         <v>17</v>
       </c>
       <c r="C82" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D82">
-        <v>29711</v>
+        <v>10580</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H82">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J82">
-        <v>4533</v>
+        <v>4380</v>
       </c>
       <c r="K82" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L82">
-        <v>258.13</v>
+        <v>31.78</v>
       </c>
       <c r="M82">
         <v>20</v>
@@ -4910,13 +4925,13 @@
         <v>30</v>
       </c>
       <c r="O82">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P82" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q82">
-        <v>2201</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -4927,34 +4942,34 @@
         <v>17</v>
       </c>
       <c r="C83" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D83">
-        <v>29711</v>
+        <v>10580</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H83">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J83">
-        <v>4533</v>
+        <v>4380</v>
       </c>
       <c r="K83" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L83">
-        <v>368.76</v>
+        <v>12.09</v>
       </c>
       <c r="M83">
         <v>20</v>
@@ -4969,7 +4984,7 @@
         <v>31</v>
       </c>
       <c r="Q83">
-        <v>2197</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -4980,34 +4995,34 @@
         <v>17</v>
       </c>
       <c r="C84" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D84">
-        <v>29711</v>
+        <v>10580</v>
       </c>
       <c r="E84">
-        <v>11</v>
+        <v>38975</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H84">
         <v>45</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J84">
-        <v>4533</v>
+        <v>4500</v>
       </c>
       <c r="K84" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L84">
-        <v>0.16</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="M84">
         <v>20</v>
@@ -5022,7 +5037,7 @@
         <v>31</v>
       </c>
       <c r="Q84">
-        <v>2174</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -5033,19 +5048,19 @@
         <v>17</v>
       </c>
       <c r="C85" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D85">
-        <v>29780</v>
+        <v>10580</v>
       </c>
       <c r="E85">
-        <v>34912</v>
+        <v>38975</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H85">
         <v>43</v>
@@ -5054,28 +5069,28 @@
         <v>20</v>
       </c>
       <c r="J85">
-        <v>4420</v>
+        <v>4380</v>
       </c>
       <c r="K85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L85">
-        <v>14766.91</v>
+        <v>13.38</v>
       </c>
       <c r="M85">
+        <v>20</v>
+      </c>
+      <c r="N85" t="s">
         <v>30</v>
       </c>
-      <c r="N85" t="s">
-        <v>36</v>
-      </c>
       <c r="O85">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="P85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q85">
-        <v>3400</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -5086,10 +5101,10 @@
         <v>17</v>
       </c>
       <c r="C86" s="1">
-        <v>44135</v>
+        <v>43943</v>
       </c>
       <c r="D86">
-        <v>29924</v>
+        <v>10580</v>
       </c>
       <c r="E86">
         <v>38975</v>
@@ -5113,22 +5128,22 @@
         <v>32</v>
       </c>
       <c r="L86">
-        <v>124</v>
+        <v>3.35</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N86" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="O86">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="P86" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q86">
-        <v>2234</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -5139,19 +5154,19 @@
         <v>17</v>
       </c>
       <c r="C87" s="1">
-        <v>44135</v>
+        <v>43950</v>
       </c>
       <c r="D87">
-        <v>29926</v>
+        <v>10589</v>
       </c>
       <c r="E87">
-        <v>34912</v>
+        <v>38975</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H87">
         <v>43</v>
@@ -5160,28 +5175,28 @@
         <v>20</v>
       </c>
       <c r="J87">
-        <v>4420</v>
+        <v>4380</v>
       </c>
       <c r="K87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L87">
-        <v>317135.58</v>
+        <v>934.6</v>
       </c>
       <c r="M87">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N87" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O87">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="P87" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q87">
-        <v>3402</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -5192,49 +5207,4130 @@
         <v>17</v>
       </c>
       <c r="C88" s="1">
-        <v>44135</v>
+        <v>43942</v>
       </c>
       <c r="D88">
-        <v>29926</v>
+        <v>10602</v>
       </c>
       <c r="E88">
-        <v>34912</v>
+        <v>77161</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J88">
-        <v>4420</v>
+        <v>1195</v>
       </c>
       <c r="K88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L88">
-        <v>3393.71</v>
+        <v>30000</v>
       </c>
       <c r="M88">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O88">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="P88" t="s">
         <v>37</v>
       </c>
       <c r="Q88">
-        <v>3400</v>
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>405</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43950</v>
+      </c>
+      <c r="D89">
+        <v>10603</v>
+      </c>
+      <c r="E89">
+        <v>38975</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89">
+        <v>43</v>
+      </c>
+      <c r="I89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89">
+        <v>4380</v>
+      </c>
+      <c r="K89" t="s">
+        <v>32</v>
+      </c>
+      <c r="L89">
+        <v>934.6</v>
+      </c>
+      <c r="M89">
+        <v>41</v>
+      </c>
+      <c r="N89" t="s">
+        <v>46</v>
+      </c>
+      <c r="O89">
+        <v>420</v>
+      </c>
+      <c r="P89" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q89">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>405</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43950</v>
+      </c>
+      <c r="D90">
+        <v>10749</v>
+      </c>
+      <c r="E90">
+        <v>77161</v>
+      </c>
+      <c r="F90" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>35</v>
+      </c>
+      <c r="J90">
+        <v>1195</v>
+      </c>
+      <c r="K90" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90">
+        <v>45000</v>
+      </c>
+      <c r="M90">
+        <v>80</v>
+      </c>
+      <c r="N90" t="s">
+        <v>37</v>
+      </c>
+      <c r="O90">
+        <v>800</v>
+      </c>
+      <c r="P90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>405</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="1">
+        <v>43951</v>
+      </c>
+      <c r="D91">
+        <v>10775</v>
+      </c>
+      <c r="E91">
+        <v>77161</v>
+      </c>
+      <c r="F91" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>35</v>
+      </c>
+      <c r="J91">
+        <v>1195</v>
+      </c>
+      <c r="K91" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91">
+        <v>40000</v>
+      </c>
+      <c r="M91">
+        <v>80</v>
+      </c>
+      <c r="N91" t="s">
+        <v>37</v>
+      </c>
+      <c r="O91">
+        <v>800</v>
+      </c>
+      <c r="P91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q91">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>405</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43944</v>
+      </c>
+      <c r="D92">
+        <v>10860</v>
+      </c>
+      <c r="E92">
+        <v>23551</v>
+      </c>
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s">
+        <v>43</v>
+      </c>
+      <c r="J92">
+        <v>4569</v>
+      </c>
+      <c r="K92" t="s">
+        <v>51</v>
+      </c>
+      <c r="L92">
+        <v>104.84</v>
+      </c>
+      <c r="M92">
+        <v>30</v>
+      </c>
+      <c r="N92" t="s">
+        <v>33</v>
+      </c>
+      <c r="O92">
+        <v>340</v>
+      </c>
+      <c r="P92" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q92">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>405</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D93">
+        <v>11225</v>
+      </c>
+      <c r="E93">
+        <v>23551</v>
+      </c>
+      <c r="F93" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93">
+        <v>45</v>
+      </c>
+      <c r="I93" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93">
+        <v>4568</v>
+      </c>
+      <c r="K93" t="s">
+        <v>53</v>
+      </c>
+      <c r="L93">
+        <v>917.25</v>
+      </c>
+      <c r="M93">
+        <v>38</v>
+      </c>
+      <c r="N93" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93">
+        <v>380</v>
+      </c>
+      <c r="P93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q93">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>405</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D94">
+        <v>11226</v>
+      </c>
+      <c r="E94">
+        <v>23551</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <v>45</v>
+      </c>
+      <c r="I94" t="s">
+        <v>43</v>
+      </c>
+      <c r="J94">
+        <v>4568</v>
+      </c>
+      <c r="K94" t="s">
+        <v>53</v>
+      </c>
+      <c r="L94">
+        <v>699.24</v>
+      </c>
+      <c r="M94">
+        <v>38</v>
+      </c>
+      <c r="N94" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94">
+        <v>380</v>
+      </c>
+      <c r="P94" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q94">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>405</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D95">
+        <v>11256</v>
+      </c>
+      <c r="E95">
+        <v>23551</v>
+      </c>
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95">
+        <v>45</v>
+      </c>
+      <c r="I95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J95">
+        <v>4568</v>
+      </c>
+      <c r="K95" t="s">
+        <v>53</v>
+      </c>
+      <c r="L95">
+        <v>3833.96</v>
+      </c>
+      <c r="M95">
+        <v>38</v>
+      </c>
+      <c r="N95" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95">
+        <v>380</v>
+      </c>
+      <c r="P95" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q95">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>405</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D96">
+        <v>11257</v>
+      </c>
+      <c r="E96">
+        <v>23551</v>
+      </c>
+      <c r="F96" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" t="s">
+        <v>50</v>
+      </c>
+      <c r="H96">
+        <v>45</v>
+      </c>
+      <c r="I96" t="s">
+        <v>43</v>
+      </c>
+      <c r="J96">
+        <v>4568</v>
+      </c>
+      <c r="K96" t="s">
+        <v>53</v>
+      </c>
+      <c r="L96">
+        <v>3909.5</v>
+      </c>
+      <c r="M96">
+        <v>38</v>
+      </c>
+      <c r="N96" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96">
+        <v>380</v>
+      </c>
+      <c r="P96" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q96">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>405</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43945</v>
+      </c>
+      <c r="D97">
+        <v>11268</v>
+      </c>
+      <c r="E97">
+        <v>77161</v>
+      </c>
+      <c r="F97" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97">
+        <v>1195</v>
+      </c>
+      <c r="K97" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97">
+        <v>120000</v>
+      </c>
+      <c r="M97">
+        <v>80</v>
+      </c>
+      <c r="N97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O97">
+        <v>800</v>
+      </c>
+      <c r="P97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q97">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>405</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43949</v>
+      </c>
+      <c r="D98">
+        <v>11284</v>
+      </c>
+      <c r="E98">
+        <v>77161</v>
+      </c>
+      <c r="F98" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98">
+        <v>1195</v>
+      </c>
+      <c r="K98" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98">
+        <v>140000</v>
+      </c>
+      <c r="M98">
+        <v>80</v>
+      </c>
+      <c r="N98" t="s">
+        <v>37</v>
+      </c>
+      <c r="O98">
+        <v>800</v>
+      </c>
+      <c r="P98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q98">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>405</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="1">
+        <v>43942</v>
+      </c>
+      <c r="D99">
+        <v>11288</v>
+      </c>
+      <c r="E99">
+        <v>77161</v>
+      </c>
+      <c r="F99" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>35</v>
+      </c>
+      <c r="J99">
+        <v>1195</v>
+      </c>
+      <c r="K99" t="s">
+        <v>36</v>
+      </c>
+      <c r="L99">
+        <v>80000</v>
+      </c>
+      <c r="M99">
+        <v>80</v>
+      </c>
+      <c r="N99" t="s">
+        <v>37</v>
+      </c>
+      <c r="O99">
+        <v>800</v>
+      </c>
+      <c r="P99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q99">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>405</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="1">
+        <v>43951</v>
+      </c>
+      <c r="D100">
+        <v>11335</v>
+      </c>
+      <c r="E100">
+        <v>38975</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100">
+        <v>43</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100">
+        <v>4410</v>
+      </c>
+      <c r="K100" t="s">
+        <v>38</v>
+      </c>
+      <c r="L100">
+        <v>887.68</v>
+      </c>
+      <c r="M100">
+        <v>41</v>
+      </c>
+      <c r="N100" t="s">
+        <v>46</v>
+      </c>
+      <c r="O100">
+        <v>420</v>
+      </c>
+      <c r="P100" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q100">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>405</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D101">
+        <v>11480</v>
+      </c>
+      <c r="E101">
+        <v>23551</v>
+      </c>
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" t="s">
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>45</v>
+      </c>
+      <c r="I101" t="s">
+        <v>43</v>
+      </c>
+      <c r="J101">
+        <v>4568</v>
+      </c>
+      <c r="K101" t="s">
+        <v>53</v>
+      </c>
+      <c r="L101">
+        <v>3606.36</v>
+      </c>
+      <c r="M101">
+        <v>38</v>
+      </c>
+      <c r="N101" t="s">
+        <v>22</v>
+      </c>
+      <c r="O101">
+        <v>380</v>
+      </c>
+      <c r="P101" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q101">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>405</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D102">
+        <v>11481</v>
+      </c>
+      <c r="E102">
+        <v>23551</v>
+      </c>
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" t="s">
+        <v>50</v>
+      </c>
+      <c r="H102">
+        <v>45</v>
+      </c>
+      <c r="I102" t="s">
+        <v>43</v>
+      </c>
+      <c r="J102">
+        <v>4568</v>
+      </c>
+      <c r="K102" t="s">
+        <v>53</v>
+      </c>
+      <c r="L102">
+        <v>1176.3</v>
+      </c>
+      <c r="M102">
+        <v>38</v>
+      </c>
+      <c r="N102" t="s">
+        <v>22</v>
+      </c>
+      <c r="O102">
+        <v>380</v>
+      </c>
+      <c r="P102" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q102">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>405</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D103">
+        <v>11482</v>
+      </c>
+      <c r="E103">
+        <v>23551</v>
+      </c>
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s">
+        <v>43</v>
+      </c>
+      <c r="J103">
+        <v>4568</v>
+      </c>
+      <c r="K103" t="s">
+        <v>53</v>
+      </c>
+      <c r="L103">
+        <v>1460.74</v>
+      </c>
+      <c r="M103">
+        <v>38</v>
+      </c>
+      <c r="N103" t="s">
+        <v>22</v>
+      </c>
+      <c r="O103">
+        <v>380</v>
+      </c>
+      <c r="P103" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q103">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>405</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D104">
+        <v>11484</v>
+      </c>
+      <c r="E104">
+        <v>23551</v>
+      </c>
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104">
+        <v>45</v>
+      </c>
+      <c r="I104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104">
+        <v>4568</v>
+      </c>
+      <c r="K104" t="s">
+        <v>53</v>
+      </c>
+      <c r="L104">
+        <v>9675.7900000000009</v>
+      </c>
+      <c r="M104">
+        <v>38</v>
+      </c>
+      <c r="N104" t="s">
+        <v>22</v>
+      </c>
+      <c r="O104">
+        <v>380</v>
+      </c>
+      <c r="P104" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q104">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>405</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D105">
+        <v>11485</v>
+      </c>
+      <c r="E105">
+        <v>23551</v>
+      </c>
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+      <c r="G105" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105">
+        <v>4568</v>
+      </c>
+      <c r="K105" t="s">
+        <v>53</v>
+      </c>
+      <c r="L105">
+        <v>2003.32</v>
+      </c>
+      <c r="M105">
+        <v>38</v>
+      </c>
+      <c r="N105" t="s">
+        <v>22</v>
+      </c>
+      <c r="O105">
+        <v>380</v>
+      </c>
+      <c r="P105" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q105">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>405</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D106">
+        <v>11485</v>
+      </c>
+      <c r="E106">
+        <v>23551</v>
+      </c>
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106">
+        <v>45</v>
+      </c>
+      <c r="I106" t="s">
+        <v>43</v>
+      </c>
+      <c r="J106">
+        <v>4568</v>
+      </c>
+      <c r="K106" t="s">
+        <v>53</v>
+      </c>
+      <c r="L106">
+        <v>4598.17</v>
+      </c>
+      <c r="M106">
+        <v>38</v>
+      </c>
+      <c r="N106" t="s">
+        <v>22</v>
+      </c>
+      <c r="O106">
+        <v>380</v>
+      </c>
+      <c r="P106" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q106">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>405</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D107">
+        <v>11487</v>
+      </c>
+      <c r="E107">
+        <v>23551</v>
+      </c>
+      <c r="F107" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" t="s">
+        <v>50</v>
+      </c>
+      <c r="H107">
+        <v>45</v>
+      </c>
+      <c r="I107" t="s">
+        <v>43</v>
+      </c>
+      <c r="J107">
+        <v>4568</v>
+      </c>
+      <c r="K107" t="s">
+        <v>53</v>
+      </c>
+      <c r="L107">
+        <v>2615.9499999999998</v>
+      </c>
+      <c r="M107">
+        <v>38</v>
+      </c>
+      <c r="N107" t="s">
+        <v>22</v>
+      </c>
+      <c r="O107">
+        <v>380</v>
+      </c>
+      <c r="P107" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q107">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>405</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D108">
+        <v>11488</v>
+      </c>
+      <c r="E108">
+        <v>23551</v>
+      </c>
+      <c r="F108" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108">
+        <v>4568</v>
+      </c>
+      <c r="K108" t="s">
+        <v>53</v>
+      </c>
+      <c r="L108">
+        <v>971.47</v>
+      </c>
+      <c r="M108">
+        <v>38</v>
+      </c>
+      <c r="N108" t="s">
+        <v>22</v>
+      </c>
+      <c r="O108">
+        <v>380</v>
+      </c>
+      <c r="P108" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q108">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>405</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D109">
+        <v>11490</v>
+      </c>
+      <c r="E109">
+        <v>23551</v>
+      </c>
+      <c r="F109" t="s">
+        <v>49</v>
+      </c>
+      <c r="G109" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109">
+        <v>45</v>
+      </c>
+      <c r="I109" t="s">
+        <v>43</v>
+      </c>
+      <c r="J109">
+        <v>4568</v>
+      </c>
+      <c r="K109" t="s">
+        <v>53</v>
+      </c>
+      <c r="L109">
+        <v>9092.42</v>
+      </c>
+      <c r="M109">
+        <v>38</v>
+      </c>
+      <c r="N109" t="s">
+        <v>22</v>
+      </c>
+      <c r="O109">
+        <v>380</v>
+      </c>
+      <c r="P109" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q109">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>405</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D110">
+        <v>11491</v>
+      </c>
+      <c r="E110">
+        <v>23551</v>
+      </c>
+      <c r="F110" t="s">
+        <v>49</v>
+      </c>
+      <c r="G110" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s">
+        <v>43</v>
+      </c>
+      <c r="J110">
+        <v>4568</v>
+      </c>
+      <c r="K110" t="s">
+        <v>53</v>
+      </c>
+      <c r="L110">
+        <v>8526.7199999999993</v>
+      </c>
+      <c r="M110">
+        <v>38</v>
+      </c>
+      <c r="N110" t="s">
+        <v>22</v>
+      </c>
+      <c r="O110">
+        <v>380</v>
+      </c>
+      <c r="P110" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q110">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>405</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D111">
+        <v>11492</v>
+      </c>
+      <c r="E111">
+        <v>23551</v>
+      </c>
+      <c r="F111" t="s">
+        <v>49</v>
+      </c>
+      <c r="G111" t="s">
+        <v>50</v>
+      </c>
+      <c r="H111">
+        <v>45</v>
+      </c>
+      <c r="I111" t="s">
+        <v>43</v>
+      </c>
+      <c r="J111">
+        <v>4568</v>
+      </c>
+      <c r="K111" t="s">
+        <v>53</v>
+      </c>
+      <c r="L111">
+        <v>3058.56</v>
+      </c>
+      <c r="M111">
+        <v>38</v>
+      </c>
+      <c r="N111" t="s">
+        <v>22</v>
+      </c>
+      <c r="O111">
+        <v>380</v>
+      </c>
+      <c r="P111" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q111">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>405</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D112">
+        <v>11492</v>
+      </c>
+      <c r="E112">
+        <v>23551</v>
+      </c>
+      <c r="F112" t="s">
+        <v>49</v>
+      </c>
+      <c r="G112" t="s">
+        <v>50</v>
+      </c>
+      <c r="H112">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112">
+        <v>4568</v>
+      </c>
+      <c r="K112" t="s">
+        <v>53</v>
+      </c>
+      <c r="L112">
+        <v>6239.6</v>
+      </c>
+      <c r="M112">
+        <v>38</v>
+      </c>
+      <c r="N112" t="s">
+        <v>22</v>
+      </c>
+      <c r="O112">
+        <v>380</v>
+      </c>
+      <c r="P112" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q112">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>405</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D113">
+        <v>11493</v>
+      </c>
+      <c r="E113">
+        <v>23551</v>
+      </c>
+      <c r="F113" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113">
+        <v>45</v>
+      </c>
+      <c r="I113" t="s">
+        <v>43</v>
+      </c>
+      <c r="J113">
+        <v>4568</v>
+      </c>
+      <c r="K113" t="s">
+        <v>53</v>
+      </c>
+      <c r="L113">
+        <v>1080.22</v>
+      </c>
+      <c r="M113">
+        <v>38</v>
+      </c>
+      <c r="N113" t="s">
+        <v>22</v>
+      </c>
+      <c r="O113">
+        <v>380</v>
+      </c>
+      <c r="P113" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q113">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>405</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D114">
+        <v>11501</v>
+      </c>
+      <c r="E114">
+        <v>23551</v>
+      </c>
+      <c r="F114" t="s">
+        <v>49</v>
+      </c>
+      <c r="G114" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s">
+        <v>43</v>
+      </c>
+      <c r="J114">
+        <v>4568</v>
+      </c>
+      <c r="K114" t="s">
+        <v>53</v>
+      </c>
+      <c r="L114">
+        <v>3952.66</v>
+      </c>
+      <c r="M114">
+        <v>38</v>
+      </c>
+      <c r="N114" t="s">
+        <v>22</v>
+      </c>
+      <c r="O114">
+        <v>380</v>
+      </c>
+      <c r="P114" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q114">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>405</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D115">
+        <v>11502</v>
+      </c>
+      <c r="E115">
+        <v>23551</v>
+      </c>
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
+      <c r="G115" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115">
+        <v>45</v>
+      </c>
+      <c r="I115" t="s">
+        <v>43</v>
+      </c>
+      <c r="J115">
+        <v>4568</v>
+      </c>
+      <c r="K115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L115">
+        <v>642.74</v>
+      </c>
+      <c r="M115">
+        <v>38</v>
+      </c>
+      <c r="N115" t="s">
+        <v>22</v>
+      </c>
+      <c r="O115">
+        <v>380</v>
+      </c>
+      <c r="P115" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q115">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>405</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D116">
+        <v>11504</v>
+      </c>
+      <c r="E116">
+        <v>23551</v>
+      </c>
+      <c r="F116" t="s">
+        <v>49</v>
+      </c>
+      <c r="G116" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s">
+        <v>43</v>
+      </c>
+      <c r="J116">
+        <v>4568</v>
+      </c>
+      <c r="K116" t="s">
+        <v>53</v>
+      </c>
+      <c r="L116">
+        <v>1767.18</v>
+      </c>
+      <c r="M116">
+        <v>38</v>
+      </c>
+      <c r="N116" t="s">
+        <v>22</v>
+      </c>
+      <c r="O116">
+        <v>380</v>
+      </c>
+      <c r="P116" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q116">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>405</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D117">
+        <v>11505</v>
+      </c>
+      <c r="E117">
+        <v>23551</v>
+      </c>
+      <c r="F117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s">
+        <v>43</v>
+      </c>
+      <c r="J117">
+        <v>4568</v>
+      </c>
+      <c r="K117" t="s">
+        <v>53</v>
+      </c>
+      <c r="L117">
+        <v>609.58000000000004</v>
+      </c>
+      <c r="M117">
+        <v>38</v>
+      </c>
+      <c r="N117" t="s">
+        <v>22</v>
+      </c>
+      <c r="O117">
+        <v>380</v>
+      </c>
+      <c r="P117" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q117">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>405</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D118">
+        <v>11506</v>
+      </c>
+      <c r="E118">
+        <v>23551</v>
+      </c>
+      <c r="F118" t="s">
+        <v>49</v>
+      </c>
+      <c r="G118" t="s">
+        <v>50</v>
+      </c>
+      <c r="H118">
+        <v>45</v>
+      </c>
+      <c r="I118" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118">
+        <v>4568</v>
+      </c>
+      <c r="K118" t="s">
+        <v>53</v>
+      </c>
+      <c r="L118">
+        <v>4004.81</v>
+      </c>
+      <c r="M118">
+        <v>38</v>
+      </c>
+      <c r="N118" t="s">
+        <v>22</v>
+      </c>
+      <c r="O118">
+        <v>380</v>
+      </c>
+      <c r="P118" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q118">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>405</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D119">
+        <v>11507</v>
+      </c>
+      <c r="E119">
+        <v>23551</v>
+      </c>
+      <c r="F119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" t="s">
+        <v>50</v>
+      </c>
+      <c r="H119">
+        <v>45</v>
+      </c>
+      <c r="I119" t="s">
+        <v>43</v>
+      </c>
+      <c r="J119">
+        <v>4568</v>
+      </c>
+      <c r="K119" t="s">
+        <v>53</v>
+      </c>
+      <c r="L119">
+        <v>1771.5</v>
+      </c>
+      <c r="M119">
+        <v>38</v>
+      </c>
+      <c r="N119" t="s">
+        <v>22</v>
+      </c>
+      <c r="O119">
+        <v>380</v>
+      </c>
+      <c r="P119" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>405</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D120">
+        <v>11508</v>
+      </c>
+      <c r="E120">
+        <v>23551</v>
+      </c>
+      <c r="F120" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120">
+        <v>45</v>
+      </c>
+      <c r="I120" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120">
+        <v>4568</v>
+      </c>
+      <c r="K120" t="s">
+        <v>53</v>
+      </c>
+      <c r="L120">
+        <v>12402.33</v>
+      </c>
+      <c r="M120">
+        <v>38</v>
+      </c>
+      <c r="N120" t="s">
+        <v>22</v>
+      </c>
+      <c r="O120">
+        <v>380</v>
+      </c>
+      <c r="P120" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q120">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>405</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D121">
+        <v>11509</v>
+      </c>
+      <c r="E121">
+        <v>23551</v>
+      </c>
+      <c r="F121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121">
+        <v>45</v>
+      </c>
+      <c r="I121" t="s">
+        <v>43</v>
+      </c>
+      <c r="J121">
+        <v>4568</v>
+      </c>
+      <c r="K121" t="s">
+        <v>53</v>
+      </c>
+      <c r="L121">
+        <v>4869.0600000000004</v>
+      </c>
+      <c r="M121">
+        <v>38</v>
+      </c>
+      <c r="N121" t="s">
+        <v>22</v>
+      </c>
+      <c r="O121">
+        <v>380</v>
+      </c>
+      <c r="P121" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q121">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>405</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D122">
+        <v>11510</v>
+      </c>
+      <c r="E122">
+        <v>23551</v>
+      </c>
+      <c r="F122" t="s">
+        <v>49</v>
+      </c>
+      <c r="G122" t="s">
+        <v>50</v>
+      </c>
+      <c r="H122">
+        <v>45</v>
+      </c>
+      <c r="I122" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122">
+        <v>4568</v>
+      </c>
+      <c r="K122" t="s">
+        <v>53</v>
+      </c>
+      <c r="L122">
+        <v>2365.33</v>
+      </c>
+      <c r="M122">
+        <v>38</v>
+      </c>
+      <c r="N122" t="s">
+        <v>22</v>
+      </c>
+      <c r="O122">
+        <v>380</v>
+      </c>
+      <c r="P122" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q122">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>405</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D123">
+        <v>11511</v>
+      </c>
+      <c r="E123">
+        <v>23551</v>
+      </c>
+      <c r="F123" t="s">
+        <v>49</v>
+      </c>
+      <c r="G123" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123">
+        <v>45</v>
+      </c>
+      <c r="I123" t="s">
+        <v>43</v>
+      </c>
+      <c r="J123">
+        <v>4568</v>
+      </c>
+      <c r="K123" t="s">
+        <v>53</v>
+      </c>
+      <c r="L123">
+        <v>3302.76</v>
+      </c>
+      <c r="M123">
+        <v>38</v>
+      </c>
+      <c r="N123" t="s">
+        <v>22</v>
+      </c>
+      <c r="O123">
+        <v>380</v>
+      </c>
+      <c r="P123" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q123">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>405</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D124">
+        <v>11513</v>
+      </c>
+      <c r="E124">
+        <v>23551</v>
+      </c>
+      <c r="F124" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" t="s">
+        <v>50</v>
+      </c>
+      <c r="H124">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s">
+        <v>43</v>
+      </c>
+      <c r="J124">
+        <v>4568</v>
+      </c>
+      <c r="K124" t="s">
+        <v>53</v>
+      </c>
+      <c r="L124">
+        <v>7280.99</v>
+      </c>
+      <c r="M124">
+        <v>38</v>
+      </c>
+      <c r="N124" t="s">
+        <v>22</v>
+      </c>
+      <c r="O124">
+        <v>380</v>
+      </c>
+      <c r="P124" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q124">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>405</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D125">
+        <v>11514</v>
+      </c>
+      <c r="E125">
+        <v>23551</v>
+      </c>
+      <c r="F125" t="s">
+        <v>49</v>
+      </c>
+      <c r="G125" t="s">
+        <v>50</v>
+      </c>
+      <c r="H125">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s">
+        <v>43</v>
+      </c>
+      <c r="J125">
+        <v>4568</v>
+      </c>
+      <c r="K125" t="s">
+        <v>53</v>
+      </c>
+      <c r="L125">
+        <v>1812.48</v>
+      </c>
+      <c r="M125">
+        <v>38</v>
+      </c>
+      <c r="N125" t="s">
+        <v>22</v>
+      </c>
+      <c r="O125">
+        <v>380</v>
+      </c>
+      <c r="P125" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q125">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>405</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D126">
+        <v>11516</v>
+      </c>
+      <c r="E126">
+        <v>23551</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" t="s">
+        <v>50</v>
+      </c>
+      <c r="H126">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s">
+        <v>43</v>
+      </c>
+      <c r="J126">
+        <v>4568</v>
+      </c>
+      <c r="K126" t="s">
+        <v>53</v>
+      </c>
+      <c r="L126">
+        <v>1132.25</v>
+      </c>
+      <c r="M126">
+        <v>38</v>
+      </c>
+      <c r="N126" t="s">
+        <v>22</v>
+      </c>
+      <c r="O126">
+        <v>380</v>
+      </c>
+      <c r="P126" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q126">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>405</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D127">
+        <v>11519</v>
+      </c>
+      <c r="E127">
+        <v>23551</v>
+      </c>
+      <c r="F127" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" t="s">
+        <v>50</v>
+      </c>
+      <c r="H127">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127">
+        <v>4568</v>
+      </c>
+      <c r="K127" t="s">
+        <v>53</v>
+      </c>
+      <c r="L127">
+        <v>356.01</v>
+      </c>
+      <c r="M127">
+        <v>38</v>
+      </c>
+      <c r="N127" t="s">
+        <v>22</v>
+      </c>
+      <c r="O127">
+        <v>380</v>
+      </c>
+      <c r="P127" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q127">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>405</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D128">
+        <v>11522</v>
+      </c>
+      <c r="E128">
+        <v>23551</v>
+      </c>
+      <c r="F128" t="s">
+        <v>49</v>
+      </c>
+      <c r="G128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H128">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128">
+        <v>4568</v>
+      </c>
+      <c r="K128" t="s">
+        <v>53</v>
+      </c>
+      <c r="L128">
+        <v>7842.66</v>
+      </c>
+      <c r="M128">
+        <v>38</v>
+      </c>
+      <c r="N128" t="s">
+        <v>22</v>
+      </c>
+      <c r="O128">
+        <v>380</v>
+      </c>
+      <c r="P128" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q128">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>405</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D129">
+        <v>11523</v>
+      </c>
+      <c r="E129">
+        <v>23551</v>
+      </c>
+      <c r="F129" t="s">
+        <v>49</v>
+      </c>
+      <c r="G129" t="s">
+        <v>50</v>
+      </c>
+      <c r="H129">
+        <v>45</v>
+      </c>
+      <c r="I129" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129">
+        <v>4568</v>
+      </c>
+      <c r="K129" t="s">
+        <v>53</v>
+      </c>
+      <c r="L129">
+        <v>2244.2199999999998</v>
+      </c>
+      <c r="M129">
+        <v>38</v>
+      </c>
+      <c r="N129" t="s">
+        <v>22</v>
+      </c>
+      <c r="O129">
+        <v>380</v>
+      </c>
+      <c r="P129" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q129">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>405</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D130">
+        <v>11524</v>
+      </c>
+      <c r="E130">
+        <v>23551</v>
+      </c>
+      <c r="F130" t="s">
+        <v>49</v>
+      </c>
+      <c r="G130" t="s">
+        <v>50</v>
+      </c>
+      <c r="H130">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130">
+        <v>4568</v>
+      </c>
+      <c r="K130" t="s">
+        <v>53</v>
+      </c>
+      <c r="L130">
+        <v>1176.94</v>
+      </c>
+      <c r="M130">
+        <v>38</v>
+      </c>
+      <c r="N130" t="s">
+        <v>22</v>
+      </c>
+      <c r="O130">
+        <v>380</v>
+      </c>
+      <c r="P130" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q130">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>405</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="1">
+        <v>43951</v>
+      </c>
+      <c r="D131">
+        <v>11525</v>
+      </c>
+      <c r="E131">
+        <v>23551</v>
+      </c>
+      <c r="F131" t="s">
+        <v>49</v>
+      </c>
+      <c r="G131" t="s">
+        <v>50</v>
+      </c>
+      <c r="H131">
+        <v>43</v>
+      </c>
+      <c r="I131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131">
+        <v>4470</v>
+      </c>
+      <c r="K131" t="s">
+        <v>48</v>
+      </c>
+      <c r="L131">
+        <v>80.650000000000006</v>
+      </c>
+      <c r="M131">
+        <v>38</v>
+      </c>
+      <c r="N131" t="s">
+        <v>22</v>
+      </c>
+      <c r="O131">
+        <v>380</v>
+      </c>
+      <c r="P131" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q131">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>405</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D132">
+        <v>11527</v>
+      </c>
+      <c r="E132">
+        <v>23551</v>
+      </c>
+      <c r="F132" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" t="s">
+        <v>50</v>
+      </c>
+      <c r="H132">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132">
+        <v>4568</v>
+      </c>
+      <c r="K132" t="s">
+        <v>53</v>
+      </c>
+      <c r="L132">
+        <v>4089.25</v>
+      </c>
+      <c r="M132">
+        <v>38</v>
+      </c>
+      <c r="N132" t="s">
+        <v>22</v>
+      </c>
+      <c r="O132">
+        <v>380</v>
+      </c>
+      <c r="P132" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q132">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>405</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D133">
+        <v>11529</v>
+      </c>
+      <c r="E133">
+        <v>23551</v>
+      </c>
+      <c r="F133" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133" t="s">
+        <v>50</v>
+      </c>
+      <c r="H133">
+        <v>45</v>
+      </c>
+      <c r="I133" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133">
+        <v>4568</v>
+      </c>
+      <c r="K133" t="s">
+        <v>53</v>
+      </c>
+      <c r="L133">
+        <v>888.75</v>
+      </c>
+      <c r="M133">
+        <v>38</v>
+      </c>
+      <c r="N133" t="s">
+        <v>22</v>
+      </c>
+      <c r="O133">
+        <v>380</v>
+      </c>
+      <c r="P133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q133">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>405</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D134">
+        <v>11530</v>
+      </c>
+      <c r="E134">
+        <v>23551</v>
+      </c>
+      <c r="F134" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s">
+        <v>43</v>
+      </c>
+      <c r="J134">
+        <v>4568</v>
+      </c>
+      <c r="K134" t="s">
+        <v>53</v>
+      </c>
+      <c r="L134">
+        <v>1718.21</v>
+      </c>
+      <c r="M134">
+        <v>38</v>
+      </c>
+      <c r="N134" t="s">
+        <v>22</v>
+      </c>
+      <c r="O134">
+        <v>380</v>
+      </c>
+      <c r="P134" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q134">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>405</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D135">
+        <v>11531</v>
+      </c>
+      <c r="E135">
+        <v>23551</v>
+      </c>
+      <c r="F135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G135" t="s">
+        <v>50</v>
+      </c>
+      <c r="H135">
+        <v>45</v>
+      </c>
+      <c r="I135" t="s">
+        <v>43</v>
+      </c>
+      <c r="J135">
+        <v>4568</v>
+      </c>
+      <c r="K135" t="s">
+        <v>53</v>
+      </c>
+      <c r="L135">
+        <v>436.98</v>
+      </c>
+      <c r="M135">
+        <v>38</v>
+      </c>
+      <c r="N135" t="s">
+        <v>22</v>
+      </c>
+      <c r="O135">
+        <v>380</v>
+      </c>
+      <c r="P135" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q135">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>405</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D136">
+        <v>11532</v>
+      </c>
+      <c r="E136">
+        <v>23551</v>
+      </c>
+      <c r="F136" t="s">
+        <v>49</v>
+      </c>
+      <c r="G136" t="s">
+        <v>50</v>
+      </c>
+      <c r="H136">
+        <v>45</v>
+      </c>
+      <c r="I136" t="s">
+        <v>43</v>
+      </c>
+      <c r="J136">
+        <v>4568</v>
+      </c>
+      <c r="K136" t="s">
+        <v>53</v>
+      </c>
+      <c r="L136">
+        <v>4459.09</v>
+      </c>
+      <c r="M136">
+        <v>38</v>
+      </c>
+      <c r="N136" t="s">
+        <v>22</v>
+      </c>
+      <c r="O136">
+        <v>380</v>
+      </c>
+      <c r="P136" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q136">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>405</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D137">
+        <v>11533</v>
+      </c>
+      <c r="E137">
+        <v>23551</v>
+      </c>
+      <c r="F137" t="s">
+        <v>49</v>
+      </c>
+      <c r="G137" t="s">
+        <v>50</v>
+      </c>
+      <c r="H137">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s">
+        <v>43</v>
+      </c>
+      <c r="J137">
+        <v>4568</v>
+      </c>
+      <c r="K137" t="s">
+        <v>53</v>
+      </c>
+      <c r="L137">
+        <v>10705.94</v>
+      </c>
+      <c r="M137">
+        <v>38</v>
+      </c>
+      <c r="N137" t="s">
+        <v>22</v>
+      </c>
+      <c r="O137">
+        <v>380</v>
+      </c>
+      <c r="P137" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q137">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>405</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D138">
+        <v>11534</v>
+      </c>
+      <c r="E138">
+        <v>23551</v>
+      </c>
+      <c r="F138" t="s">
+        <v>49</v>
+      </c>
+      <c r="G138" t="s">
+        <v>50</v>
+      </c>
+      <c r="H138">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s">
+        <v>43</v>
+      </c>
+      <c r="J138">
+        <v>4568</v>
+      </c>
+      <c r="K138" t="s">
+        <v>53</v>
+      </c>
+      <c r="L138">
+        <v>4123.96</v>
+      </c>
+      <c r="M138">
+        <v>38</v>
+      </c>
+      <c r="N138" t="s">
+        <v>22</v>
+      </c>
+      <c r="O138">
+        <v>380</v>
+      </c>
+      <c r="P138" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q138">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>405</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D139">
+        <v>11535</v>
+      </c>
+      <c r="E139">
+        <v>23551</v>
+      </c>
+      <c r="F139" t="s">
+        <v>49</v>
+      </c>
+      <c r="G139" t="s">
+        <v>50</v>
+      </c>
+      <c r="H139">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s">
+        <v>43</v>
+      </c>
+      <c r="J139">
+        <v>4568</v>
+      </c>
+      <c r="K139" t="s">
+        <v>53</v>
+      </c>
+      <c r="L139">
+        <v>6098.55</v>
+      </c>
+      <c r="M139">
+        <v>38</v>
+      </c>
+      <c r="N139" t="s">
+        <v>22</v>
+      </c>
+      <c r="O139">
+        <v>380</v>
+      </c>
+      <c r="P139" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q139">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>405</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D140">
+        <v>11536</v>
+      </c>
+      <c r="E140">
+        <v>23551</v>
+      </c>
+      <c r="F140" t="s">
+        <v>49</v>
+      </c>
+      <c r="G140" t="s">
+        <v>50</v>
+      </c>
+      <c r="H140">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s">
+        <v>43</v>
+      </c>
+      <c r="J140">
+        <v>4568</v>
+      </c>
+      <c r="K140" t="s">
+        <v>53</v>
+      </c>
+      <c r="L140">
+        <v>5034.55</v>
+      </c>
+      <c r="M140">
+        <v>38</v>
+      </c>
+      <c r="N140" t="s">
+        <v>22</v>
+      </c>
+      <c r="O140">
+        <v>380</v>
+      </c>
+      <c r="P140" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q140">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>405</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D141">
+        <v>11537</v>
+      </c>
+      <c r="E141">
+        <v>23551</v>
+      </c>
+      <c r="F141" t="s">
+        <v>49</v>
+      </c>
+      <c r="G141" t="s">
+        <v>50</v>
+      </c>
+      <c r="H141">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141">
+        <v>4568</v>
+      </c>
+      <c r="K141" t="s">
+        <v>53</v>
+      </c>
+      <c r="L141">
+        <v>3126.96</v>
+      </c>
+      <c r="M141">
+        <v>38</v>
+      </c>
+      <c r="N141" t="s">
+        <v>22</v>
+      </c>
+      <c r="O141">
+        <v>380</v>
+      </c>
+      <c r="P141" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q141">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>405</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D142">
+        <v>11538</v>
+      </c>
+      <c r="E142">
+        <v>23551</v>
+      </c>
+      <c r="F142" t="s">
+        <v>49</v>
+      </c>
+      <c r="G142" t="s">
+        <v>50</v>
+      </c>
+      <c r="H142">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142">
+        <v>4568</v>
+      </c>
+      <c r="K142" t="s">
+        <v>53</v>
+      </c>
+      <c r="L142">
+        <v>4124.8999999999996</v>
+      </c>
+      <c r="M142">
+        <v>38</v>
+      </c>
+      <c r="N142" t="s">
+        <v>22</v>
+      </c>
+      <c r="O142">
+        <v>380</v>
+      </c>
+      <c r="P142" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q142">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>405</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D143">
+        <v>11539</v>
+      </c>
+      <c r="E143">
+        <v>23551</v>
+      </c>
+      <c r="F143" t="s">
+        <v>49</v>
+      </c>
+      <c r="G143" t="s">
+        <v>50</v>
+      </c>
+      <c r="H143">
+        <v>45</v>
+      </c>
+      <c r="I143" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143">
+        <v>4568</v>
+      </c>
+      <c r="K143" t="s">
+        <v>53</v>
+      </c>
+      <c r="L143">
+        <v>2765.9</v>
+      </c>
+      <c r="M143">
+        <v>38</v>
+      </c>
+      <c r="N143" t="s">
+        <v>22</v>
+      </c>
+      <c r="O143">
+        <v>380</v>
+      </c>
+      <c r="P143" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q143">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>405</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D144">
+        <v>11540</v>
+      </c>
+      <c r="E144">
+        <v>23551</v>
+      </c>
+      <c r="F144" t="s">
+        <v>49</v>
+      </c>
+      <c r="G144" t="s">
+        <v>50</v>
+      </c>
+      <c r="H144">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s">
+        <v>43</v>
+      </c>
+      <c r="J144">
+        <v>4568</v>
+      </c>
+      <c r="K144" t="s">
+        <v>53</v>
+      </c>
+      <c r="L144">
+        <v>1463.15</v>
+      </c>
+      <c r="M144">
+        <v>38</v>
+      </c>
+      <c r="N144" t="s">
+        <v>22</v>
+      </c>
+      <c r="O144">
+        <v>380</v>
+      </c>
+      <c r="P144" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q144">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>405</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D145">
+        <v>11542</v>
+      </c>
+      <c r="E145">
+        <v>23551</v>
+      </c>
+      <c r="F145" t="s">
+        <v>49</v>
+      </c>
+      <c r="G145" t="s">
+        <v>50</v>
+      </c>
+      <c r="H145">
+        <v>45</v>
+      </c>
+      <c r="I145" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145">
+        <v>4568</v>
+      </c>
+      <c r="K145" t="s">
+        <v>53</v>
+      </c>
+      <c r="L145">
+        <v>1739.84</v>
+      </c>
+      <c r="M145">
+        <v>38</v>
+      </c>
+      <c r="N145" t="s">
+        <v>22</v>
+      </c>
+      <c r="O145">
+        <v>380</v>
+      </c>
+      <c r="P145" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q145">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>405</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D146">
+        <v>11543</v>
+      </c>
+      <c r="E146">
+        <v>23551</v>
+      </c>
+      <c r="F146" t="s">
+        <v>49</v>
+      </c>
+      <c r="G146" t="s">
+        <v>50</v>
+      </c>
+      <c r="H146">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s">
+        <v>43</v>
+      </c>
+      <c r="J146">
+        <v>4568</v>
+      </c>
+      <c r="K146" t="s">
+        <v>53</v>
+      </c>
+      <c r="L146">
+        <v>2236.59</v>
+      </c>
+      <c r="M146">
+        <v>38</v>
+      </c>
+      <c r="N146" t="s">
+        <v>22</v>
+      </c>
+      <c r="O146">
+        <v>380</v>
+      </c>
+      <c r="P146" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q146">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>405</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D147">
+        <v>11545</v>
+      </c>
+      <c r="E147">
+        <v>23551</v>
+      </c>
+      <c r="F147" t="s">
+        <v>49</v>
+      </c>
+      <c r="G147" t="s">
+        <v>50</v>
+      </c>
+      <c r="H147">
+        <v>45</v>
+      </c>
+      <c r="I147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147">
+        <v>4568</v>
+      </c>
+      <c r="K147" t="s">
+        <v>53</v>
+      </c>
+      <c r="L147">
+        <v>1544.33</v>
+      </c>
+      <c r="M147">
+        <v>38</v>
+      </c>
+      <c r="N147" t="s">
+        <v>22</v>
+      </c>
+      <c r="O147">
+        <v>380</v>
+      </c>
+      <c r="P147" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q147">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>405</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D148">
+        <v>11547</v>
+      </c>
+      <c r="E148">
+        <v>23551</v>
+      </c>
+      <c r="F148" t="s">
+        <v>49</v>
+      </c>
+      <c r="G148" t="s">
+        <v>50</v>
+      </c>
+      <c r="H148">
+        <v>45</v>
+      </c>
+      <c r="I148" t="s">
+        <v>43</v>
+      </c>
+      <c r="J148">
+        <v>4568</v>
+      </c>
+      <c r="K148" t="s">
+        <v>53</v>
+      </c>
+      <c r="L148">
+        <v>642.04999999999995</v>
+      </c>
+      <c r="M148">
+        <v>38</v>
+      </c>
+      <c r="N148" t="s">
+        <v>22</v>
+      </c>
+      <c r="O148">
+        <v>380</v>
+      </c>
+      <c r="P148" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q148">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>405</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D149">
+        <v>11549</v>
+      </c>
+      <c r="E149">
+        <v>23551</v>
+      </c>
+      <c r="F149" t="s">
+        <v>49</v>
+      </c>
+      <c r="G149" t="s">
+        <v>50</v>
+      </c>
+      <c r="H149">
+        <v>45</v>
+      </c>
+      <c r="I149" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149">
+        <v>4568</v>
+      </c>
+      <c r="K149" t="s">
+        <v>53</v>
+      </c>
+      <c r="L149">
+        <v>837.11</v>
+      </c>
+      <c r="M149">
+        <v>38</v>
+      </c>
+      <c r="N149" t="s">
+        <v>22</v>
+      </c>
+      <c r="O149">
+        <v>380</v>
+      </c>
+      <c r="P149" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q149">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>405</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D150">
+        <v>11550</v>
+      </c>
+      <c r="E150">
+        <v>23551</v>
+      </c>
+      <c r="F150" t="s">
+        <v>49</v>
+      </c>
+      <c r="G150" t="s">
+        <v>50</v>
+      </c>
+      <c r="H150">
+        <v>45</v>
+      </c>
+      <c r="I150" t="s">
+        <v>43</v>
+      </c>
+      <c r="J150">
+        <v>4568</v>
+      </c>
+      <c r="K150" t="s">
+        <v>53</v>
+      </c>
+      <c r="L150">
+        <v>535.03</v>
+      </c>
+      <c r="M150">
+        <v>38</v>
+      </c>
+      <c r="N150" t="s">
+        <v>22</v>
+      </c>
+      <c r="O150">
+        <v>380</v>
+      </c>
+      <c r="P150" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q150">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>405</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D151">
+        <v>11553</v>
+      </c>
+      <c r="E151">
+        <v>23551</v>
+      </c>
+      <c r="F151" t="s">
+        <v>49</v>
+      </c>
+      <c r="G151" t="s">
+        <v>50</v>
+      </c>
+      <c r="H151">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s">
+        <v>43</v>
+      </c>
+      <c r="J151">
+        <v>4568</v>
+      </c>
+      <c r="K151" t="s">
+        <v>53</v>
+      </c>
+      <c r="L151">
+        <v>2059.64</v>
+      </c>
+      <c r="M151">
+        <v>38</v>
+      </c>
+      <c r="N151" t="s">
+        <v>22</v>
+      </c>
+      <c r="O151">
+        <v>380</v>
+      </c>
+      <c r="P151" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q151">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>405</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D152">
+        <v>11554</v>
+      </c>
+      <c r="E152">
+        <v>23551</v>
+      </c>
+      <c r="F152" t="s">
+        <v>49</v>
+      </c>
+      <c r="G152" t="s">
+        <v>50</v>
+      </c>
+      <c r="H152">
+        <v>45</v>
+      </c>
+      <c r="I152" t="s">
+        <v>43</v>
+      </c>
+      <c r="J152">
+        <v>4568</v>
+      </c>
+      <c r="K152" t="s">
+        <v>53</v>
+      </c>
+      <c r="L152">
+        <v>1024.8599999999999</v>
+      </c>
+      <c r="M152">
+        <v>38</v>
+      </c>
+      <c r="N152" t="s">
+        <v>22</v>
+      </c>
+      <c r="O152">
+        <v>380</v>
+      </c>
+      <c r="P152" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q152">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>405</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D153">
+        <v>11555</v>
+      </c>
+      <c r="E153">
+        <v>23551</v>
+      </c>
+      <c r="F153" t="s">
+        <v>49</v>
+      </c>
+      <c r="G153" t="s">
+        <v>50</v>
+      </c>
+      <c r="H153">
+        <v>45</v>
+      </c>
+      <c r="I153" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153">
+        <v>4568</v>
+      </c>
+      <c r="K153" t="s">
+        <v>53</v>
+      </c>
+      <c r="L153">
+        <v>5360.43</v>
+      </c>
+      <c r="M153">
+        <v>38</v>
+      </c>
+      <c r="N153" t="s">
+        <v>22</v>
+      </c>
+      <c r="O153">
+        <v>380</v>
+      </c>
+      <c r="P153" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q153">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>405</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D154">
+        <v>11556</v>
+      </c>
+      <c r="E154">
+        <v>23551</v>
+      </c>
+      <c r="F154" t="s">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>50</v>
+      </c>
+      <c r="H154">
+        <v>45</v>
+      </c>
+      <c r="I154" t="s">
+        <v>43</v>
+      </c>
+      <c r="J154">
+        <v>4568</v>
+      </c>
+      <c r="K154" t="s">
+        <v>53</v>
+      </c>
+      <c r="L154">
+        <v>3938.78</v>
+      </c>
+      <c r="M154">
+        <v>38</v>
+      </c>
+      <c r="N154" t="s">
+        <v>22</v>
+      </c>
+      <c r="O154">
+        <v>380</v>
+      </c>
+      <c r="P154" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q154">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>405</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D155">
+        <v>11558</v>
+      </c>
+      <c r="E155">
+        <v>23551</v>
+      </c>
+      <c r="F155" t="s">
+        <v>49</v>
+      </c>
+      <c r="G155" t="s">
+        <v>50</v>
+      </c>
+      <c r="H155">
+        <v>45</v>
+      </c>
+      <c r="I155" t="s">
+        <v>43</v>
+      </c>
+      <c r="J155">
+        <v>4568</v>
+      </c>
+      <c r="K155" t="s">
+        <v>53</v>
+      </c>
+      <c r="L155">
+        <v>4892</v>
+      </c>
+      <c r="M155">
+        <v>38</v>
+      </c>
+      <c r="N155" t="s">
+        <v>22</v>
+      </c>
+      <c r="O155">
+        <v>380</v>
+      </c>
+      <c r="P155" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q155">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>405</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D156">
+        <v>11559</v>
+      </c>
+      <c r="E156">
+        <v>23551</v>
+      </c>
+      <c r="F156" t="s">
+        <v>49</v>
+      </c>
+      <c r="G156" t="s">
+        <v>50</v>
+      </c>
+      <c r="H156">
+        <v>45</v>
+      </c>
+      <c r="I156" t="s">
+        <v>43</v>
+      </c>
+      <c r="J156">
+        <v>4568</v>
+      </c>
+      <c r="K156" t="s">
+        <v>53</v>
+      </c>
+      <c r="L156">
+        <v>3133.15</v>
+      </c>
+      <c r="M156">
+        <v>38</v>
+      </c>
+      <c r="N156" t="s">
+        <v>22</v>
+      </c>
+      <c r="O156">
+        <v>380</v>
+      </c>
+      <c r="P156" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q156">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>405</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D157">
+        <v>11560</v>
+      </c>
+      <c r="E157">
+        <v>23551</v>
+      </c>
+      <c r="F157" t="s">
+        <v>49</v>
+      </c>
+      <c r="G157" t="s">
+        <v>50</v>
+      </c>
+      <c r="H157">
+        <v>45</v>
+      </c>
+      <c r="I157" t="s">
+        <v>43</v>
+      </c>
+      <c r="J157">
+        <v>4568</v>
+      </c>
+      <c r="K157" t="s">
+        <v>53</v>
+      </c>
+      <c r="L157">
+        <v>8592.34</v>
+      </c>
+      <c r="M157">
+        <v>38</v>
+      </c>
+      <c r="N157" t="s">
+        <v>22</v>
+      </c>
+      <c r="O157">
+        <v>380</v>
+      </c>
+      <c r="P157" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q157">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>405</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D158">
+        <v>11561</v>
+      </c>
+      <c r="E158">
+        <v>23551</v>
+      </c>
+      <c r="F158" t="s">
+        <v>49</v>
+      </c>
+      <c r="G158" t="s">
+        <v>50</v>
+      </c>
+      <c r="H158">
+        <v>45</v>
+      </c>
+      <c r="I158" t="s">
+        <v>43</v>
+      </c>
+      <c r="J158">
+        <v>4568</v>
+      </c>
+      <c r="K158" t="s">
+        <v>53</v>
+      </c>
+      <c r="L158">
+        <v>2812.09</v>
+      </c>
+      <c r="M158">
+        <v>38</v>
+      </c>
+      <c r="N158" t="s">
+        <v>22</v>
+      </c>
+      <c r="O158">
+        <v>380</v>
+      </c>
+      <c r="P158" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q158">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>405</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D159">
+        <v>11562</v>
+      </c>
+      <c r="E159">
+        <v>23551</v>
+      </c>
+      <c r="F159" t="s">
+        <v>49</v>
+      </c>
+      <c r="G159" t="s">
+        <v>50</v>
+      </c>
+      <c r="H159">
+        <v>45</v>
+      </c>
+      <c r="I159" t="s">
+        <v>43</v>
+      </c>
+      <c r="J159">
+        <v>4568</v>
+      </c>
+      <c r="K159" t="s">
+        <v>53</v>
+      </c>
+      <c r="L159">
+        <v>1026.05</v>
+      </c>
+      <c r="M159">
+        <v>38</v>
+      </c>
+      <c r="N159" t="s">
+        <v>22</v>
+      </c>
+      <c r="O159">
+        <v>380</v>
+      </c>
+      <c r="P159" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q159">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>405</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D160">
+        <v>11563</v>
+      </c>
+      <c r="E160">
+        <v>23551</v>
+      </c>
+      <c r="F160" t="s">
+        <v>49</v>
+      </c>
+      <c r="G160" t="s">
+        <v>50</v>
+      </c>
+      <c r="H160">
+        <v>45</v>
+      </c>
+      <c r="I160" t="s">
+        <v>43</v>
+      </c>
+      <c r="J160">
+        <v>4568</v>
+      </c>
+      <c r="K160" t="s">
+        <v>53</v>
+      </c>
+      <c r="L160">
+        <v>917.87</v>
+      </c>
+      <c r="M160">
+        <v>38</v>
+      </c>
+      <c r="N160" t="s">
+        <v>22</v>
+      </c>
+      <c r="O160">
+        <v>380</v>
+      </c>
+      <c r="P160" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q160">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>405</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D161">
+        <v>11565</v>
+      </c>
+      <c r="E161">
+        <v>23551</v>
+      </c>
+      <c r="F161" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" t="s">
+        <v>50</v>
+      </c>
+      <c r="H161">
+        <v>45</v>
+      </c>
+      <c r="I161" t="s">
+        <v>43</v>
+      </c>
+      <c r="J161">
+        <v>4568</v>
+      </c>
+      <c r="K161" t="s">
+        <v>53</v>
+      </c>
+      <c r="L161">
+        <v>946.94</v>
+      </c>
+      <c r="M161">
+        <v>38</v>
+      </c>
+      <c r="N161" t="s">
+        <v>22</v>
+      </c>
+      <c r="O161">
+        <v>380</v>
+      </c>
+      <c r="P161" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q161">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>405</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D162">
+        <v>11566</v>
+      </c>
+      <c r="E162">
+        <v>23551</v>
+      </c>
+      <c r="F162" t="s">
+        <v>49</v>
+      </c>
+      <c r="G162" t="s">
+        <v>50</v>
+      </c>
+      <c r="H162">
+        <v>45</v>
+      </c>
+      <c r="I162" t="s">
+        <v>43</v>
+      </c>
+      <c r="J162">
+        <v>4568</v>
+      </c>
+      <c r="K162" t="s">
+        <v>53</v>
+      </c>
+      <c r="L162">
+        <v>145.47999999999999</v>
+      </c>
+      <c r="M162">
+        <v>38</v>
+      </c>
+      <c r="N162" t="s">
+        <v>22</v>
+      </c>
+      <c r="O162">
+        <v>380</v>
+      </c>
+      <c r="P162" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q162">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>405</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D163">
+        <v>11567</v>
+      </c>
+      <c r="E163">
+        <v>23551</v>
+      </c>
+      <c r="F163" t="s">
+        <v>49</v>
+      </c>
+      <c r="G163" t="s">
+        <v>50</v>
+      </c>
+      <c r="H163">
+        <v>45</v>
+      </c>
+      <c r="I163" t="s">
+        <v>43</v>
+      </c>
+      <c r="J163">
+        <v>4568</v>
+      </c>
+      <c r="K163" t="s">
+        <v>53</v>
+      </c>
+      <c r="L163">
+        <v>914.12</v>
+      </c>
+      <c r="M163">
+        <v>38</v>
+      </c>
+      <c r="N163" t="s">
+        <v>22</v>
+      </c>
+      <c r="O163">
+        <v>380</v>
+      </c>
+      <c r="P163" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q163">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>405</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D164">
+        <v>11570</v>
+      </c>
+      <c r="E164">
+        <v>23551</v>
+      </c>
+      <c r="F164" t="s">
+        <v>49</v>
+      </c>
+      <c r="G164" t="s">
+        <v>50</v>
+      </c>
+      <c r="H164">
+        <v>45</v>
+      </c>
+      <c r="I164" t="s">
+        <v>43</v>
+      </c>
+      <c r="J164">
+        <v>4568</v>
+      </c>
+      <c r="K164" t="s">
+        <v>53</v>
+      </c>
+      <c r="L164">
+        <v>2239.8000000000002</v>
+      </c>
+      <c r="M164">
+        <v>38</v>
+      </c>
+      <c r="N164" t="s">
+        <v>22</v>
+      </c>
+      <c r="O164">
+        <v>380</v>
+      </c>
+      <c r="P164" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q164">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>405</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D165">
+        <v>11571</v>
+      </c>
+      <c r="E165">
+        <v>23551</v>
+      </c>
+      <c r="F165" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" t="s">
+        <v>50</v>
+      </c>
+      <c r="H165">
+        <v>45</v>
+      </c>
+      <c r="I165" t="s">
+        <v>43</v>
+      </c>
+      <c r="J165">
+        <v>4568</v>
+      </c>
+      <c r="K165" t="s">
+        <v>53</v>
+      </c>
+      <c r="L165">
+        <v>5318.19</v>
+      </c>
+      <c r="M165">
+        <v>38</v>
+      </c>
+      <c r="N165" t="s">
+        <v>22</v>
+      </c>
+      <c r="O165">
+        <v>380</v>
+      </c>
+      <c r="P165" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q165">
+        <v>3810</v>
       </c>
     </row>
   </sheetData>
